--- a/data/supp_tables/Supplementary Table 4.xlsx
+++ b/data/supp_tables/Supplementary Table 4.xlsx
@@ -294,14 +294,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
-    <numFmt numFmtId="50000" formatCode="0.00"/>
-    <numFmt numFmtId="50001" formatCode="0.0E+00"/>
-    <numFmt numFmtId="50002" formatCode="0.0E+00"/>
-    <numFmt numFmtId="50003" formatCode="0.0E+00"/>
-    <numFmt numFmtId="50004" formatCode="0.0E+00"/>
-    <numFmt numFmtId="50005" formatCode="0.0E+00"/>
-    <numFmt numFmtId="50006" formatCode="0.0E+00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -336,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -345,13 +340,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="50000" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50001" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50002" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50003" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50004" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50005" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50006" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,7 +649,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="12.71" hidden="0" customWidth="1"/>
   </cols>
@@ -845,7 +835,7 @@
       <c r="F6" s="4" t="n">
         <v>0.411954410938726</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="H6" s="4" t="n">
@@ -854,7 +844,7 @@
       <c r="I6" s="4" t="n">
         <v>0.715011682139805</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="K6" s="4" t="n">
@@ -863,7 +853,7 @@
       <c r="L6" s="4" t="n">
         <v>0.500911747616168</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="N6" s="4" t="n">
@@ -872,7 +862,7 @@
       <c r="O6" s="4" t="n">
         <v>0.376789637680986</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q6" s="4" t="n">
@@ -881,7 +871,7 @@
       <c r="R6" s="4" t="n">
         <v>0.580531461393528</v>
       </c>
-      <c r="S6" s="10" t="n">
+      <c r="S6" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
     </row>
@@ -904,7 +894,7 @@
       <c r="F7" s="4" t="n">
         <v>0.12963053181733</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="H7" s="4" t="n">
@@ -913,7 +903,7 @@
       <c r="I7" s="4" t="n">
         <v>0.197757558295997</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="5" t="n">
         <v>0.00115966796875</v>
       </c>
       <c r="K7" s="4" t="n">
@@ -922,7 +912,7 @@
       <c r="L7" s="4" t="n">
         <v>0.167637646539155</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="5" t="n">
         <v>0.0008544921875</v>
       </c>
       <c r="N7" s="4" t="n">
@@ -931,7 +921,7 @@
       <c r="O7" s="4" t="n">
         <v>0.0946077470235113</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="P7" s="5" t="n">
         <v>0.00030517578125</v>
       </c>
       <c r="Q7" s="4" t="n">
@@ -940,7 +930,7 @@
       <c r="R7" s="4" t="n">
         <v>0.202913090930498</v>
       </c>
-      <c r="S7" s="10" t="n">
+      <c r="S7" s="5" t="n">
         <v>0.00201416015625</v>
       </c>
     </row>
@@ -963,7 +953,7 @@
       <c r="F8" s="4" t="n">
         <v>0.211613150654376</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="H8" s="4" t="n">
@@ -972,7 +962,7 @@
       <c r="I8" s="4" t="n">
         <v>0.265604415505234</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="K8" s="4" t="n">
@@ -981,7 +971,7 @@
       <c r="L8" s="4" t="n">
         <v>0.212838536646526</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="N8" s="4" t="n">
@@ -990,7 +980,7 @@
       <c r="O8" s="4" t="n">
         <v>0.239662601251029</v>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="P8" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q8" s="4" t="n">
@@ -999,7 +989,7 @@
       <c r="R8" s="4" t="n">
         <v>0.217282785913812</v>
       </c>
-      <c r="S8" s="10" t="n">
+      <c r="S8" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
     </row>
@@ -1022,7 +1012,7 @@
       <c r="F9" s="4" t="n">
         <v>0.429006113395396</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="5" t="n">
         <v>0.012451171875</v>
       </c>
       <c r="H9" s="4" t="n">
@@ -1031,7 +1021,7 @@
       <c r="I9" s="4" t="n">
         <v>0.685630598972236</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="5" t="n">
         <v>0.0008544921875</v>
       </c>
       <c r="K9" s="4" t="n">
@@ -1040,7 +1030,7 @@
       <c r="L9" s="4" t="n">
         <v>0.488746629720236</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="N9" s="4" t="n">
@@ -1049,7 +1039,7 @@
       <c r="O9" s="4" t="n">
         <v>0.543167914108865</v>
       </c>
-      <c r="P9" s="9" t="n">
+      <c r="P9" s="5" t="n">
         <v>0.1353759765625</v>
       </c>
       <c r="Q9" s="4" t="n">
@@ -1058,7 +1048,7 @@
       <c r="R9" s="4" t="n">
         <v>0.749016153937309</v>
       </c>
-      <c r="S9" s="10" t="n">
+      <c r="S9" s="5" t="n">
         <v>0.01507568359375</v>
       </c>
     </row>
@@ -1081,7 +1071,7 @@
       <c r="F10" s="4" t="n">
         <v>0.111500204473805</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="5" t="n">
         <v>0.00537109375</v>
       </c>
       <c r="H10" s="4" t="n">
@@ -1090,7 +1080,7 @@
       <c r="I10" s="4" t="n">
         <v>0.325929523020203</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="5" t="n">
         <v>0.0067138671875</v>
       </c>
       <c r="K10" s="4" t="n">
@@ -1099,7 +1089,7 @@
       <c r="L10" s="4" t="n">
         <v>0.148004616469874</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="N10" s="4" t="n">
@@ -1108,7 +1098,7 @@
       <c r="O10" s="4" t="n">
         <v>0.177819755830338</v>
       </c>
-      <c r="P10" s="9" t="n">
+      <c r="P10" s="5" t="n">
         <v>0.012451171875</v>
       </c>
       <c r="Q10" s="4" t="n">
@@ -1117,7 +1107,7 @@
       <c r="R10" s="4" t="n">
         <v>0.315567181503889</v>
       </c>
-      <c r="S10" s="10" t="n">
+      <c r="S10" s="5" t="n">
         <v>0.00335693359375</v>
       </c>
     </row>
@@ -1140,7 +1130,7 @@
       <c r="F11" s="4" t="n">
         <v>0.159981560223</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="5" t="n">
         <v>0.01507568359375</v>
       </c>
       <c r="H11" s="4" t="n">
@@ -1149,7 +1139,7 @@
       <c r="I11" s="4" t="n">
         <v>0.153758838740314</v>
       </c>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="5" t="n">
         <v>0.00262451171875</v>
       </c>
       <c r="K11" s="4" t="n">
@@ -1158,7 +1148,7 @@
       <c r="L11" s="4" t="n">
         <v>0.173427566102623</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="5" t="n">
         <v>0.389404296875</v>
       </c>
       <c r="N11" s="4" t="n">
@@ -1167,7 +1157,7 @@
       <c r="O11" s="4" t="n">
         <v>0.111865359010111</v>
       </c>
-      <c r="P11" s="9" t="n">
+      <c r="P11" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q11" s="4" t="n">
@@ -1176,7 +1166,7 @@
       <c r="R11" s="4" t="n">
         <v>0.253682153213819</v>
       </c>
-      <c r="S11" s="10" t="n">
+      <c r="S11" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
     </row>
@@ -1199,7 +1189,7 @@
       <c r="F12" s="4" t="n">
         <v>0.0709706646128368</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="H12" s="4" t="n">
@@ -1208,7 +1198,7 @@
       <c r="I12" s="4" t="n">
         <v>0.109243631978094</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="5" t="n">
         <v>0.359130859375</v>
       </c>
       <c r="K12" s="4" t="n">
@@ -1217,7 +1207,7 @@
       <c r="L12" s="4" t="n">
         <v>0.0486591450886619</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="N12" s="4" t="n">
@@ -1226,7 +1216,7 @@
       <c r="O12" s="4" t="n">
         <v>0.0955445370493466</v>
       </c>
-      <c r="P12" s="9" t="n">
+      <c r="P12" s="5" t="n">
         <v>0.52447509765625</v>
       </c>
       <c r="Q12" s="4" t="n">
@@ -1235,7 +1225,7 @@
       <c r="R12" s="4" t="n">
         <v>0.125826528609733</v>
       </c>
-      <c r="S12" s="10" t="n">
+      <c r="S12" s="5" t="n">
         <v>0.45428466796875</v>
       </c>
     </row>
@@ -1258,7 +1248,7 @@
       <c r="F13" s="4" t="n">
         <v>0.0421574794192465</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="5" t="n">
         <v>0.00537109375</v>
       </c>
       <c r="H13" s="4" t="n">
@@ -1267,7 +1257,7 @@
       <c r="I13" s="4" t="n">
         <v>0.102176562113058</v>
       </c>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="5" t="n">
         <v>0.01806640625</v>
       </c>
       <c r="K13" s="4" t="n">
@@ -1276,7 +1266,7 @@
       <c r="L13" s="4" t="n">
         <v>0.0669930292872404</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="5" t="n">
         <v>0.00042724609375</v>
       </c>
       <c r="N13" s="4" t="n">
@@ -1285,7 +1275,7 @@
       <c r="O13" s="4" t="n">
         <v>0.120844525456734</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="P13" s="5" t="n">
         <v>0.0301513671875</v>
       </c>
       <c r="Q13" s="4" t="n">
@@ -1294,7 +1284,7 @@
       <c r="R13" s="4" t="n">
         <v>0.0992551466837662</v>
       </c>
-      <c r="S13" s="10" t="n">
+      <c r="S13" s="5" t="n">
         <v>0.03533935546875</v>
       </c>
     </row>
@@ -1317,7 +1307,7 @@
       <c r="F14" s="4" t="n">
         <v>0.0691145875105011</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="5" t="n">
         <v>0.30279541015625</v>
       </c>
       <c r="H14" s="4" t="n">
@@ -1326,7 +1316,7 @@
       <c r="I14" s="4" t="n">
         <v>0.14982702045928</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="5" t="n">
         <v>0.803955078125</v>
       </c>
       <c r="K14" s="4" t="n">
@@ -1335,7 +1325,7 @@
       <c r="L14" s="4" t="n">
         <v>0.0752780026656276</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="5" t="n">
         <v>0.072998046875</v>
       </c>
       <c r="N14" s="4" t="n">
@@ -1344,7 +1334,7 @@
       <c r="O14" s="4" t="n">
         <v>0.227299974326587</v>
       </c>
-      <c r="P14" s="9" t="n">
+      <c r="P14" s="5" t="n">
         <v>0.33026123046875</v>
       </c>
       <c r="Q14" s="4" t="n">
@@ -1353,7 +1343,7 @@
       <c r="R14" s="4" t="n">
         <v>0.186221383330275</v>
       </c>
-      <c r="S14" s="10" t="n">
+      <c r="S14" s="5" t="n">
         <v>0.04791259765625</v>
       </c>
     </row>
@@ -1376,7 +1366,7 @@
       <c r="F15" s="4" t="n">
         <v>0.0349018158436089</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="n">
@@ -1385,7 +1375,7 @@
       <c r="I15" s="4" t="n">
         <v>0.120638394946576</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="K15" s="4" t="n">
@@ -1394,7 +1384,7 @@
       <c r="L15" s="4" t="n">
         <v>0.053265974980596</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="5" t="n">
         <v>0.05535888671875</v>
       </c>
       <c r="N15" s="4" t="n">
@@ -1403,7 +1393,7 @@
       <c r="O15" s="4" t="n">
         <v>0.185481790973111</v>
       </c>
-      <c r="P15" s="9" t="n">
+      <c r="P15" s="5" t="n">
         <v>0.063720703125</v>
       </c>
       <c r="Q15" s="4" t="n">
@@ -1412,7 +1402,7 @@
       <c r="R15" s="4" t="n">
         <v>0.171869903915974</v>
       </c>
-      <c r="S15" s="10" t="n">
+      <c r="S15" s="5" t="n">
         <v>0.00115966796875</v>
       </c>
     </row>
@@ -1435,7 +1425,7 @@
       <c r="F16" s="4" t="n">
         <v>0.0665695468306086</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="5" t="n">
         <v>0.05535888671875</v>
       </c>
       <c r="H16" s="4" t="n">
@@ -1444,7 +1434,7 @@
       <c r="I16" s="4" t="n">
         <v>0.133122323855767</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="5" t="n">
         <v>0.00115966796875</v>
       </c>
       <c r="K16" s="4" t="n">
@@ -1453,7 +1443,7 @@
       <c r="L16" s="4" t="n">
         <v>0.0914079289677063</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="5" t="n">
         <v>0.00537109375</v>
       </c>
       <c r="N16" s="4" t="n">
@@ -1462,7 +1452,7 @@
       <c r="O16" s="4" t="n">
         <v>0.0967546209807737</v>
       </c>
-      <c r="P16" s="9" t="n">
+      <c r="P16" s="5" t="n">
         <v>0.072998046875</v>
       </c>
       <c r="Q16" s="4" t="n">
@@ -1471,7 +1461,7 @@
       <c r="R16" s="4" t="n">
         <v>0.129452621346785</v>
       </c>
-      <c r="S16" s="10" t="n">
+      <c r="S16" s="5" t="n">
         <v>0.01507568359375</v>
       </c>
     </row>
@@ -1494,7 +1484,7 @@
       <c r="F17" s="4" t="n">
         <v>0.0481704550870993</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="H17" s="4" t="n">
@@ -1503,7 +1493,7 @@
       <c r="I17" s="4" t="n">
         <v>0.0932475344609472</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="5" t="n">
         <v>0.00201416015625</v>
       </c>
       <c r="K17" s="4" t="n">
@@ -1512,7 +1502,7 @@
       <c r="L17" s="4" t="n">
         <v>0.065181579583058</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="5" t="n">
         <v>0.00042724609375</v>
       </c>
       <c r="N17" s="4" t="n">
@@ -1521,7 +1511,7 @@
       <c r="O17" s="4" t="n">
         <v>0.120531297183222</v>
       </c>
-      <c r="P17" s="9" t="n">
+      <c r="P17" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q17" s="4" t="n">
@@ -1530,7 +1520,7 @@
       <c r="R17" s="4" t="n">
         <v>0.0855719504504365</v>
       </c>
-      <c r="S17" s="10" t="n">
+      <c r="S17" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
     </row>
@@ -1553,7 +1543,7 @@
       <c r="F18" s="4" t="n">
         <v>0.0491834617950573</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="5" t="n">
         <v>0.0008544921875</v>
       </c>
       <c r="H18" s="4" t="n">
@@ -1562,7 +1552,7 @@
       <c r="I18" s="4" t="n">
         <v>0.0734258821114768</v>
       </c>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="5" t="n">
         <v>0.1353759765625</v>
       </c>
       <c r="K18" s="4" t="n">
@@ -1571,7 +1561,7 @@
       <c r="L18" s="4" t="n">
         <v>0.0641646166478965</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="5" t="n">
         <v>0.359130859375</v>
       </c>
       <c r="N18" s="4" t="n">
@@ -1580,7 +1570,7 @@
       <c r="O18" s="4" t="n">
         <v>0.103232756588366</v>
       </c>
-      <c r="P18" s="9" t="n">
+      <c r="P18" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="Q18" s="4" t="n">
@@ -1589,7 +1579,7 @@
       <c r="R18" s="4" t="n">
         <v>0.0964476142400719</v>
       </c>
-      <c r="S18" s="10" t="n">
+      <c r="S18" s="5" t="n">
         <v>0.03533935546875</v>
       </c>
     </row>
@@ -1612,7 +1602,7 @@
       <c r="F19" s="4" t="n">
         <v>0.136347021325107</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="5" t="n">
         <v>0.42120361328125</v>
       </c>
       <c r="H19" s="4" t="n">
@@ -1621,7 +1611,7 @@
       <c r="I19" s="4" t="n">
         <v>0.261175758929959</v>
       </c>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="5" t="n">
         <v>0.072998046875</v>
       </c>
       <c r="K19" s="4" t="n">
@@ -1630,7 +1620,7 @@
       <c r="L19" s="4" t="n">
         <v>0.321798591872547</v>
       </c>
-      <c r="M19" s="8" t="n">
+      <c r="M19" s="5" t="n">
         <v>0.03533935546875</v>
       </c>
       <c r="N19" s="4" t="n">
@@ -1639,7 +1629,7 @@
       <c r="O19" s="4" t="n">
         <v>0.131687333650167</v>
       </c>
-      <c r="P19" s="9" t="n">
+      <c r="P19" s="5" t="n">
         <v>0.0067138671875</v>
       </c>
       <c r="Q19" s="4" t="n">
@@ -1648,7 +1638,7 @@
       <c r="R19" s="4" t="n">
         <v>0.215917484191499</v>
       </c>
-      <c r="S19" s="10" t="n">
+      <c r="S19" s="5" t="n">
         <v>0.1876220703125</v>
       </c>
     </row>
@@ -1671,7 +1661,7 @@
       <c r="F20" s="4" t="n">
         <v>0.107643613814689</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="5" t="n">
         <v>0.359130859375</v>
       </c>
       <c r="H20" s="4" t="n">
@@ -1680,7 +1670,7 @@
       <c r="I20" s="4" t="n">
         <v>0.177923140139621</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="K20" s="4" t="n">
@@ -1689,7 +1679,7 @@
       <c r="L20" s="4" t="n">
         <v>0.167032480611897</v>
       </c>
-      <c r="M20" s="8" t="n">
+      <c r="M20" s="5" t="n">
         <v>0.0946044921875</v>
       </c>
       <c r="N20" s="4" t="n">
@@ -1698,7 +1688,7 @@
       <c r="O20" s="4" t="n">
         <v>0.0959670526414719</v>
       </c>
-      <c r="P20" s="9" t="n">
+      <c r="P20" s="5" t="n">
         <v>0.00030517578125</v>
       </c>
       <c r="Q20" s="4" t="n">
@@ -1707,7 +1697,7 @@
       <c r="R20" s="4" t="n">
         <v>0.1707685023037</v>
       </c>
-      <c r="S20" s="10" t="n">
+      <c r="S20" s="5" t="n">
         <v>0.012451171875</v>
       </c>
     </row>
@@ -1730,7 +1720,7 @@
       <c r="F21" s="4" t="n">
         <v>0.0526696521852716</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
       <c r="H21" s="4" t="n">
@@ -1739,7 +1729,7 @@
       <c r="I21" s="4" t="n">
         <v>0.138638529307451</v>
       </c>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="K21" s="4" t="n">
@@ -1748,7 +1738,7 @@
       <c r="L21" s="4" t="n">
         <v>0.0939612083841064</v>
       </c>
-      <c r="M21" s="8" t="n">
+      <c r="M21" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="N21" s="4" t="n">
@@ -1757,7 +1747,7 @@
       <c r="O21" s="4" t="n">
         <v>0.0881790213233996</v>
       </c>
-      <c r="P21" s="9" t="n">
+      <c r="P21" s="5" t="n">
         <v>0.00115966796875</v>
       </c>
       <c r="Q21" s="4" t="n">
@@ -1766,7 +1756,7 @@
       <c r="R21" s="4" t="n">
         <v>0.123471834627585</v>
       </c>
-      <c r="S21" s="10" t="n">
+      <c r="S21" s="5" t="n">
         <v>0.00030517578125</v>
       </c>
     </row>
@@ -1789,7 +1779,7 @@
       <c r="F22" s="4" t="n">
         <v>0.0550300121088873</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="H22" s="4" t="n">
@@ -1798,7 +1788,7 @@
       <c r="I22" s="4" t="n">
         <v>0.089282220451035</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="5" t="n">
         <v>0.00030517578125</v>
       </c>
       <c r="K22" s="4" t="n">
@@ -1807,7 +1797,7 @@
       <c r="L22" s="4" t="n">
         <v>0.0649981048730877</v>
       </c>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="N22" s="4" t="n">
@@ -1816,7 +1806,7 @@
       <c r="O22" s="4" t="n">
         <v>0.104993798232866</v>
       </c>
-      <c r="P22" s="9" t="n">
+      <c r="P22" s="5" t="n">
         <v>0.1876220703125</v>
       </c>
       <c r="Q22" s="4" t="n">
@@ -1825,7 +1815,7 @@
       <c r="R22" s="4" t="n">
         <v>0.107209154998811</v>
       </c>
-      <c r="S22" s="10" t="n">
+      <c r="S22" s="5" t="n">
         <v>0.00042724609375</v>
       </c>
     </row>
@@ -1848,7 +1838,7 @@
       <c r="F23" s="4" t="n">
         <v>0.107895063842684</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="5" t="n">
         <v>0.10699462890625</v>
       </c>
       <c r="H23" s="4" t="n">
@@ -1857,7 +1847,7 @@
       <c r="I23" s="4" t="n">
         <v>0.183923194028455</v>
       </c>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="5" t="n">
         <v>0.93408203125</v>
       </c>
       <c r="K23" s="4" t="n">
@@ -1866,7 +1856,7 @@
       <c r="L23" s="4" t="n">
         <v>0.159143679095731</v>
       </c>
-      <c r="M23" s="8" t="n">
+      <c r="M23" s="5" t="n">
         <v>0.52447509765625</v>
       </c>
       <c r="N23" s="4" t="n">
@@ -1875,7 +1865,7 @@
       <c r="O23" s="4" t="n">
         <v>0.0842762938859001</v>
       </c>
-      <c r="P23" s="9" t="n">
+      <c r="P23" s="5" t="n">
         <v>0.02557373046875</v>
       </c>
       <c r="Q23" s="4" t="n">
@@ -1884,7 +1874,7 @@
       <c r="R23" s="4" t="n">
         <v>0.143385612385904</v>
       </c>
-      <c r="S23" s="10" t="n">
+      <c r="S23" s="5" t="n">
         <v>0.42120361328125</v>
       </c>
     </row>
@@ -1907,7 +1897,7 @@
       <c r="F24" s="4" t="n">
         <v>0.0445121887963819</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="H24" s="4" t="n">
@@ -1916,7 +1906,7 @@
       <c r="I24" s="4" t="n">
         <v>0.112199185367379</v>
       </c>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="5" t="n">
         <v>0.012451171875</v>
       </c>
       <c r="K24" s="4" t="n">
@@ -1925,7 +1915,7 @@
       <c r="L24" s="4" t="n">
         <v>0.0749398576443086</v>
       </c>
-      <c r="M24" s="8" t="n">
+      <c r="M24" s="5" t="n">
         <v>0.00201416015625</v>
       </c>
       <c r="N24" s="4" t="n">
@@ -1934,7 +1924,7 @@
       <c r="O24" s="4" t="n">
         <v>0.0640215061250551</v>
       </c>
-      <c r="P24" s="9" t="n">
+      <c r="P24" s="5" t="n">
         <v>0.063720703125</v>
       </c>
       <c r="Q24" s="4" t="n">
@@ -1943,7 +1933,7 @@
       <c r="R24" s="4" t="n">
         <v>0.107879300223615</v>
       </c>
-      <c r="S24" s="10" t="n">
+      <c r="S24" s="5" t="n">
         <v>0.15142822265625</v>
       </c>
     </row>
@@ -1966,7 +1956,7 @@
       <c r="F25" s="4" t="n">
         <v>0.0579723642286563</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G25" s="5" t="n">
         <v>0.27685546875</v>
       </c>
       <c r="H25" s="4" t="n">
@@ -1975,7 +1965,7 @@
       <c r="I25" s="4" t="n">
         <v>0.08988758396054</v>
       </c>
-      <c r="J25" s="7" t="n">
+      <c r="J25" s="5" t="n">
         <v>0.5994873046875</v>
       </c>
       <c r="K25" s="4" t="n">
@@ -1984,7 +1974,7 @@
       <c r="L25" s="4" t="n">
         <v>0.0691207743964532</v>
       </c>
-      <c r="M25" s="8" t="n">
+      <c r="M25" s="5" t="n">
         <v>0.072998046875</v>
       </c>
       <c r="N25" s="4" t="n">
@@ -1993,7 +1983,7 @@
       <c r="O25" s="4" t="n">
         <v>0.0681994088278224</v>
       </c>
-      <c r="P25" s="9" t="n">
+      <c r="P25" s="5" t="n">
         <v>0.30279541015625</v>
       </c>
       <c r="Q25" s="4" t="n">
@@ -2002,7 +1992,7 @@
       <c r="R25" s="4" t="n">
         <v>0.0815550463114395</v>
       </c>
-      <c r="S25" s="10" t="n">
+      <c r="S25" s="5" t="n">
         <v>0.207763671875</v>
       </c>
     </row>
@@ -2025,7 +2015,7 @@
       <c r="F26" s="4" t="n">
         <v>0.0792778380152275</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="5" t="n">
         <v>0.207763671875</v>
       </c>
       <c r="H26" s="4" t="n">
@@ -2034,7 +2024,7 @@
       <c r="I26" s="4" t="n">
         <v>0.138014971890084</v>
       </c>
-      <c r="J26" s="7" t="n">
+      <c r="J26" s="5" t="n">
         <v>0.207763671875</v>
       </c>
       <c r="K26" s="4" t="n">
@@ -2043,7 +2033,7 @@
       <c r="L26" s="4" t="n">
         <v>0.131581796760165</v>
       </c>
-      <c r="M26" s="8" t="n">
+      <c r="M26" s="5" t="n">
         <v>0.00152587890625</v>
       </c>
       <c r="N26" s="4" t="n">
@@ -2052,7 +2042,7 @@
       <c r="O26" s="4" t="n">
         <v>0.149268033971614</v>
       </c>
-      <c r="P26" s="9" t="n">
+      <c r="P26" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q26" s="4" t="n">
@@ -2061,7 +2051,7 @@
       <c r="R26" s="4" t="n">
         <v>0.121764306229961</v>
       </c>
-      <c r="S26" s="10" t="n">
+      <c r="S26" s="5" t="n">
         <v>0.063720703125</v>
       </c>
     </row>
@@ -2084,7 +2074,7 @@
       <c r="F27" s="4" t="n">
         <v>0.495540615205507</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="H27" s="4" t="n">
@@ -2093,7 +2083,7 @@
       <c r="I27" s="4" t="n">
         <v>0.277892861564153</v>
       </c>
-      <c r="J27" s="7" t="n">
+      <c r="J27" s="5" t="n">
         <v>0.04791259765625</v>
       </c>
       <c r="K27" s="4" t="n">
@@ -2102,7 +2092,7 @@
       <c r="L27" s="4" t="n">
         <v>0.384378298607019</v>
       </c>
-      <c r="M27" s="8" t="n">
+      <c r="M27" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="N27" s="4" t="n">
@@ -2111,7 +2101,7 @@
       <c r="O27" s="4" t="n">
         <v>0.164850752709853</v>
       </c>
-      <c r="P27" s="9" t="n">
+      <c r="P27" s="5" t="n">
         <v>0.45428466796875</v>
       </c>
       <c r="Q27" s="4" t="n">
@@ -2120,7 +2110,7 @@
       <c r="R27" s="4" t="n">
         <v>0.226858710734455</v>
       </c>
-      <c r="S27" s="10" t="n">
+      <c r="S27" s="5" t="n">
         <v>0.1353759765625</v>
       </c>
     </row>
@@ -2143,7 +2133,7 @@
       <c r="F28" s="4" t="n">
         <v>0.111243900559194</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="5" t="n">
         <v>0.15142822265625</v>
       </c>
       <c r="H28" s="4" t="n">
@@ -2152,7 +2142,7 @@
       <c r="I28" s="4" t="n">
         <v>0.160815770758823</v>
       </c>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="5" t="n">
         <v>0.0301513671875</v>
       </c>
       <c r="K28" s="4" t="n">
@@ -2161,7 +2151,7 @@
       <c r="L28" s="4" t="n">
         <v>0.12881374892872</v>
       </c>
-      <c r="M28" s="8" t="n">
+      <c r="M28" s="5" t="n">
         <v>0.890380859375</v>
       </c>
       <c r="N28" s="4" t="n">
@@ -2170,7 +2160,7 @@
       <c r="O28" s="4" t="n">
         <v>0.0927124924654436</v>
       </c>
-      <c r="P28" s="9" t="n">
+      <c r="P28" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="Q28" s="4" t="n">
@@ -2179,7 +2169,7 @@
       <c r="R28" s="4" t="n">
         <v>0.101351630169014</v>
       </c>
-      <c r="S28" s="10" t="n">
+      <c r="S28" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
     </row>
@@ -2202,7 +2192,7 @@
       <c r="F29" s="4" t="n">
         <v>0.0328762129951605</v>
       </c>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="5" t="n">
         <v>0.0008544921875</v>
       </c>
       <c r="H29" s="4" t="n">
@@ -2211,7 +2201,7 @@
       <c r="I29" s="4" t="n">
         <v>0.137585952097757</v>
       </c>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="5" t="n">
         <v>0.0008544921875</v>
       </c>
       <c r="K29" s="4" t="n">
@@ -2220,7 +2210,7 @@
       <c r="L29" s="4" t="n">
         <v>0.0718927469540973</v>
       </c>
-      <c r="M29" s="8" t="n">
+      <c r="M29" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="N29" s="4" t="n">
@@ -2229,7 +2219,7 @@
       <c r="O29" s="4" t="n">
         <v>0.080978821815463</v>
       </c>
-      <c r="P29" s="9" t="n">
+      <c r="P29" s="5" t="n">
         <v>0.02154541015625</v>
       </c>
       <c r="Q29" s="4" t="n">
@@ -2238,7 +2228,7 @@
       <c r="R29" s="4" t="n">
         <v>0.103395415185009</v>
       </c>
-      <c r="S29" s="10" t="n">
+      <c r="S29" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
     </row>
@@ -2261,7 +2251,7 @@
       <c r="F30" s="4" t="n">
         <v>0.0982091073283946</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="5" t="n">
         <v>0.67877197265625</v>
       </c>
       <c r="H30" s="4" t="n">
@@ -2270,7 +2260,7 @@
       <c r="I30" s="4" t="n">
         <v>0.119032402070632</v>
       </c>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="K30" s="4" t="n">
@@ -2279,7 +2269,7 @@
       <c r="L30" s="4" t="n">
         <v>0.091148702951133</v>
       </c>
-      <c r="M30" s="8" t="n">
+      <c r="M30" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="N30" s="4" t="n">
@@ -2288,7 +2278,7 @@
       <c r="O30" s="4" t="n">
         <v>0.130397324577142</v>
       </c>
-      <c r="P30" s="9" t="n">
+      <c r="P30" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
       <c r="Q30" s="4" t="n">
@@ -2297,7 +2287,7 @@
       <c r="R30" s="4" t="n">
         <v>0.137343525424671</v>
       </c>
-      <c r="S30" s="10" t="n">
+      <c r="S30" s="5" t="n">
         <v>0.00030517578125</v>
       </c>
     </row>
@@ -2320,7 +2310,7 @@
       <c r="F31" s="4" t="n">
         <v>0.123253303893139</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="5" t="n">
         <v>0.25238037109375</v>
       </c>
       <c r="H31" s="4" t="n">
@@ -2329,7 +2319,7 @@
       <c r="I31" s="4" t="n">
         <v>0.276123475560293</v>
       </c>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="5" t="n">
         <v>0.1688232421875</v>
       </c>
       <c r="K31" s="4" t="n">
@@ -2338,7 +2328,7 @@
       <c r="L31" s="4" t="n">
         <v>0.160779041466132</v>
       </c>
-      <c r="M31" s="8" t="n">
+      <c r="M31" s="5" t="n">
         <v>0.25238037109375</v>
       </c>
       <c r="N31" s="4" t="n">
@@ -2347,7 +2337,7 @@
       <c r="O31" s="4" t="n">
         <v>0.163076052577045</v>
       </c>
-      <c r="P31" s="9" t="n">
+      <c r="P31" s="5" t="n">
         <v>0.01806640625</v>
       </c>
       <c r="Q31" s="4" t="n">
@@ -2356,7 +2346,7 @@
       <c r="R31" s="4" t="n">
         <v>0.326502536520789</v>
       </c>
-      <c r="S31" s="10" t="n">
+      <c r="S31" s="5" t="n">
         <v>0.063720703125</v>
       </c>
     </row>
@@ -2379,7 +2369,7 @@
       <c r="F32" s="4" t="n">
         <v>0.0291377585154338</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="H32" s="4" t="n">
@@ -2388,7 +2378,7 @@
       <c r="I32" s="4" t="n">
         <v>0.0716084009145889</v>
       </c>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="K32" s="4" t="n">
@@ -2397,7 +2387,7 @@
       <c r="L32" s="4" t="n">
         <v>0.0500012284504755</v>
       </c>
-      <c r="M32" s="8" t="n">
+      <c r="M32" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="N32" s="4" t="n">
@@ -2406,7 +2396,7 @@
       <c r="O32" s="4" t="n">
         <v>0.0814535931005617</v>
       </c>
-      <c r="P32" s="9" t="n">
+      <c r="P32" s="5" t="n">
         <v>0.00030517578125</v>
       </c>
       <c r="Q32" s="4" t="n">
@@ -2415,7 +2405,7 @@
       <c r="R32" s="4" t="n">
         <v>0.0662449127490458</v>
       </c>
-      <c r="S32" s="10" t="n">
+      <c r="S32" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
     </row>
@@ -2438,7 +2428,7 @@
       <c r="F33" s="4" t="n">
         <v>0.0651839911940788</v>
       </c>
-      <c r="G33" s="6" t="n">
+      <c r="G33" s="5" t="n">
         <v>0.0067138671875</v>
       </c>
       <c r="H33" s="4" t="n">
@@ -2447,7 +2437,7 @@
       <c r="I33" s="4" t="n">
         <v>0.116094604492208</v>
       </c>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="5" t="n">
         <v>0.5994873046875</v>
       </c>
       <c r="K33" s="4" t="n">
@@ -2456,7 +2446,7 @@
       <c r="L33" s="4" t="n">
         <v>0.0904123242834152</v>
       </c>
-      <c r="M33" s="8" t="n">
+      <c r="M33" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="N33" s="4" t="n">
@@ -2465,7 +2455,7 @@
       <c r="O33" s="4" t="n">
         <v>0.180505456568202</v>
       </c>
-      <c r="P33" s="9" t="n">
+      <c r="P33" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q33" s="4" t="n">
@@ -2474,7 +2464,7 @@
       <c r="R33" s="4" t="n">
         <v>0.117060020260705</v>
       </c>
-      <c r="S33" s="10" t="n">
+      <c r="S33" s="5" t="n">
         <v>0.041259765625</v>
       </c>
     </row>
@@ -2497,7 +2487,7 @@
       <c r="F34" s="4" t="n">
         <v>0.0472413132927211</v>
       </c>
-      <c r="G34" s="6" t="n">
+      <c r="G34" s="5" t="n">
         <v>0.76153564453125</v>
       </c>
       <c r="H34" s="4" t="n">
@@ -2506,7 +2496,7 @@
       <c r="I34" s="4" t="n">
         <v>0.133941053113005</v>
       </c>
-      <c r="J34" s="7" t="n">
+      <c r="J34" s="5" t="n">
         <v>0.12054443359375</v>
       </c>
       <c r="K34" s="4" t="n">
@@ -2515,7 +2505,7 @@
       <c r="L34" s="4" t="n">
         <v>0.0912426741608266</v>
       </c>
-      <c r="M34" s="8" t="n">
+      <c r="M34" s="5" t="n">
         <v>0.083251953125</v>
       </c>
       <c r="N34" s="4" t="n">
@@ -2524,7 +2514,7 @@
       <c r="O34" s="4" t="n">
         <v>0.0701323516993972</v>
       </c>
-      <c r="P34" s="9" t="n">
+      <c r="P34" s="5" t="n">
         <v>0.1353759765625</v>
       </c>
       <c r="Q34" s="4" t="n">
@@ -2533,7 +2523,7 @@
       <c r="R34" s="4" t="n">
         <v>0.130985771992124</v>
       </c>
-      <c r="S34" s="10" t="n">
+      <c r="S34" s="5" t="n">
         <v>0.072998046875</v>
       </c>
     </row>
@@ -2556,7 +2546,7 @@
       <c r="F35" s="4" t="n">
         <v>0.309298220193445</v>
       </c>
-      <c r="G35" s="6" t="n">
+      <c r="G35" s="5" t="n">
         <v>0.25238037109375</v>
       </c>
       <c r="H35" s="4" t="n">
@@ -2565,7 +2555,7 @@
       <c r="I35" s="4" t="n">
         <v>0.600367094394237</v>
       </c>
-      <c r="J35" s="7" t="n">
+      <c r="J35" s="5" t="n">
         <v>0.42120361328125</v>
       </c>
       <c r="K35" s="4" t="n">
@@ -2574,7 +2564,7 @@
       <c r="L35" s="4" t="n">
         <v>0.347487439748203</v>
       </c>
-      <c r="M35" s="8" t="n">
+      <c r="M35" s="5" t="n">
         <v>0.76153564453125</v>
       </c>
       <c r="N35" s="4" t="n">
@@ -2583,7 +2573,7 @@
       <c r="O35" s="4" t="n">
         <v>0.455149445168051</v>
       </c>
-      <c r="P35" s="9" t="n">
+      <c r="P35" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="Q35" s="4" t="n">
@@ -2592,7 +2582,7 @@
       <c r="R35" s="4" t="n">
         <v>0.464731158717936</v>
       </c>
-      <c r="S35" s="10" t="n">
+      <c r="S35" s="5" t="n">
         <v>0.05535888671875</v>
       </c>
     </row>
@@ -2615,7 +2605,7 @@
       <c r="F36" s="4" t="n">
         <v>0.0781986581208633</v>
       </c>
-      <c r="G36" s="6" t="n">
+      <c r="G36" s="5" t="n">
         <v>0.0008544921875</v>
       </c>
       <c r="H36" s="4" t="n">
@@ -2624,7 +2614,7 @@
       <c r="I36" s="4" t="n">
         <v>0.146031106811959</v>
       </c>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="5" t="n">
         <v>0.846923828125</v>
       </c>
       <c r="K36" s="4" t="n">
@@ -2633,7 +2623,7 @@
       <c r="L36" s="4" t="n">
         <v>0.0808938945785754</v>
       </c>
-      <c r="M36" s="8" t="n">
+      <c r="M36" s="5" t="n">
         <v>0.846923828125</v>
       </c>
       <c r="N36" s="4" t="n">
@@ -2642,7 +2632,7 @@
       <c r="O36" s="4" t="n">
         <v>0.107367453396664</v>
       </c>
-      <c r="P36" s="9" t="n">
+      <c r="P36" s="5" t="n">
         <v>0.76153564453125</v>
       </c>
       <c r="Q36" s="4" t="n">
@@ -2651,7 +2641,7 @@
       <c r="R36" s="4" t="n">
         <v>0.13289320267867</v>
       </c>
-      <c r="S36" s="10" t="n">
+      <c r="S36" s="5" t="n">
         <v>0.0946044921875</v>
       </c>
     </row>
@@ -2674,7 +2664,7 @@
       <c r="F37" s="4" t="n">
         <v>0.104184944395264</v>
       </c>
-      <c r="G37" s="6" t="n">
+      <c r="G37" s="5" t="n">
         <v>0.03533935546875</v>
       </c>
       <c r="H37" s="4" t="n">
@@ -2683,7 +2673,7 @@
       <c r="I37" s="4" t="n">
         <v>0.167026871852943</v>
       </c>
-      <c r="J37" s="7" t="n">
+      <c r="J37" s="5" t="n">
         <v>0.33026123046875</v>
       </c>
       <c r="K37" s="4" t="n">
@@ -2692,7 +2682,7 @@
       <c r="L37" s="4" t="n">
         <v>0.171931279565714</v>
       </c>
-      <c r="M37" s="8" t="n">
+      <c r="M37" s="5" t="n">
         <v>0.012451171875</v>
       </c>
       <c r="N37" s="4" t="n">
@@ -2701,7 +2691,7 @@
       <c r="O37" s="4" t="n">
         <v>0.132113129750505</v>
       </c>
-      <c r="P37" s="9" t="n">
+      <c r="P37" s="5" t="n">
         <v>0.33026123046875</v>
       </c>
       <c r="Q37" s="4" t="n">
@@ -2710,7 +2700,7 @@
       <c r="R37" s="4" t="n">
         <v>0.170096036162455</v>
       </c>
-      <c r="S37" s="10" t="n">
+      <c r="S37" s="5" t="n">
         <v>0.846923828125</v>
       </c>
     </row>
@@ -2733,7 +2723,7 @@
       <c r="F38" s="4" t="n">
         <v>0.0382154357388621</v>
       </c>
-      <c r="G38" s="6" t="n">
+      <c r="G38" s="5" t="n">
         <v>0.890380859375</v>
       </c>
       <c r="H38" s="4" t="n">
@@ -2742,7 +2732,7 @@
       <c r="I38" s="4" t="n">
         <v>0.0861420487127074</v>
       </c>
-      <c r="J38" s="7" t="n">
+      <c r="J38" s="5" t="n">
         <v>0.072998046875</v>
       </c>
       <c r="K38" s="4" t="n">
@@ -2751,7 +2741,7 @@
       <c r="L38" s="4" t="n">
         <v>0.0844284391913216</v>
       </c>
-      <c r="M38" s="8" t="n">
+      <c r="M38" s="5" t="n">
         <v>0.67877197265625</v>
       </c>
       <c r="N38" s="4" t="n">
@@ -2760,7 +2750,7 @@
       <c r="O38" s="4" t="n">
         <v>0.0541230767551719</v>
       </c>
-      <c r="P38" s="9" t="n">
+      <c r="P38" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q38" s="4" t="n">
@@ -2769,7 +2759,7 @@
       <c r="R38" s="4" t="n">
         <v>0.075037507904517</v>
       </c>
-      <c r="S38" s="10" t="n">
+      <c r="S38" s="5" t="n">
         <v>0.01507568359375</v>
       </c>
     </row>
@@ -2792,7 +2782,7 @@
       <c r="F39" s="4" t="n">
         <v>0.0483714843807233</v>
       </c>
-      <c r="G39" s="6" t="n">
+      <c r="G39" s="5" t="n">
         <v>0.00042724609375</v>
       </c>
       <c r="H39" s="4" t="n">
@@ -2801,7 +2791,7 @@
       <c r="I39" s="4" t="n">
         <v>0.322927474861155</v>
       </c>
-      <c r="J39" s="7" t="n">
+      <c r="J39" s="5" t="n">
         <v>0.52447509765625</v>
       </c>
       <c r="K39" s="4" t="n">
@@ -2810,7 +2800,7 @@
       <c r="L39" s="4" t="n">
         <v>0.177364469817024</v>
       </c>
-      <c r="M39" s="8" t="n">
+      <c r="M39" s="5" t="n">
         <v>0.072998046875</v>
       </c>
       <c r="N39" s="4" t="n">
@@ -2819,7 +2809,7 @@
       <c r="O39" s="4" t="n">
         <v>0.106204479705607</v>
       </c>
-      <c r="P39" s="9" t="n">
+      <c r="P39" s="5" t="n">
         <v>0.041259765625</v>
       </c>
       <c r="Q39" s="4" t="n">
@@ -2828,7 +2818,7 @@
       <c r="R39" s="4" t="n">
         <v>0.309369312939623</v>
       </c>
-      <c r="S39" s="10" t="n">
+      <c r="S39" s="5" t="n">
         <v>0.5614013671875</v>
       </c>
     </row>
@@ -2851,7 +2841,7 @@
       <c r="F40" s="4" t="n">
         <v>0.0449556459346908</v>
       </c>
-      <c r="G40" s="6" t="n">
+      <c r="G40" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
       <c r="H40" s="4" t="n">
@@ -2860,7 +2850,7 @@
       <c r="I40" s="4" t="n">
         <v>0.0735277191548171</v>
       </c>
-      <c r="J40" s="7" t="n">
+      <c r="J40" s="5" t="n">
         <v>0.359130859375</v>
       </c>
       <c r="K40" s="4" t="n">
@@ -2869,7 +2859,7 @@
       <c r="L40" s="4" t="n">
         <v>0.0659627380755517</v>
       </c>
-      <c r="M40" s="8" t="n">
+      <c r="M40" s="5" t="n">
         <v>0.5994873046875</v>
       </c>
       <c r="N40" s="4" t="n">
@@ -2878,7 +2868,7 @@
       <c r="O40" s="4" t="n">
         <v>0.0691560578098506</v>
       </c>
-      <c r="P40" s="9" t="n">
+      <c r="P40" s="5" t="n">
         <v>0.389404296875</v>
       </c>
       <c r="Q40" s="4" t="n">
@@ -2887,7 +2877,7 @@
       <c r="R40" s="4" t="n">
         <v>0.0671155731932035</v>
       </c>
-      <c r="S40" s="10" t="n">
+      <c r="S40" s="5" t="n">
         <v>0.93408203125</v>
       </c>
     </row>
@@ -2910,7 +2900,7 @@
       <c r="F41" s="4" t="n">
         <v>0.244357368003929</v>
       </c>
-      <c r="G41" s="6" t="n">
+      <c r="G41" s="5" t="n">
         <v>0.00115966796875</v>
       </c>
       <c r="H41" s="4" t="n">
@@ -2919,7 +2909,7 @@
       <c r="I41" s="4" t="n">
         <v>0.463412775329998</v>
       </c>
-      <c r="J41" s="7" t="n">
+      <c r="J41" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="K41" s="4" t="n">
@@ -2928,7 +2918,7 @@
       <c r="L41" s="4" t="n">
         <v>0.451494814967434</v>
       </c>
-      <c r="M41" s="8" t="n">
+      <c r="M41" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="N41" s="4" t="n">
@@ -2937,7 +2927,7 @@
       <c r="O41" s="4" t="n">
         <v>0.162430970573338</v>
       </c>
-      <c r="P41" s="9" t="n">
+      <c r="P41" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q41" s="4" t="n">
@@ -2946,7 +2936,7 @@
       <c r="R41" s="4" t="n">
         <v>0.395393696146695</v>
       </c>
-      <c r="S41" s="10" t="n">
+      <c r="S41" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
     </row>
@@ -2969,7 +2959,7 @@
       <c r="F42" s="4" t="n">
         <v>0.0804714745420279</v>
       </c>
-      <c r="G42" s="6" t="n">
+      <c r="G42" s="5" t="n">
         <v>0.041259765625</v>
       </c>
       <c r="H42" s="4" t="n">
@@ -2978,7 +2968,7 @@
       <c r="I42" s="4" t="n">
         <v>0.138321722296882</v>
       </c>
-      <c r="J42" s="7" t="n">
+      <c r="J42" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="K42" s="4" t="n">
@@ -2987,7 +2977,7 @@
       <c r="L42" s="4" t="n">
         <v>0.101714289576735</v>
       </c>
-      <c r="M42" s="8" t="n">
+      <c r="M42" s="5" t="n">
         <v>0.0042724609375</v>
       </c>
       <c r="N42" s="4" t="n">
@@ -2996,7 +2986,7 @@
       <c r="O42" s="4" t="n">
         <v>0.129510400770732</v>
       </c>
-      <c r="P42" s="9" t="n">
+      <c r="P42" s="5" t="n">
         <v>0.05535888671875</v>
       </c>
       <c r="Q42" s="4" t="n">
@@ -3005,7 +2995,7 @@
       <c r="R42" s="4" t="n">
         <v>0.140932758130377</v>
       </c>
-      <c r="S42" s="10" t="n">
+      <c r="S42" s="5" t="n">
         <v>0.012451171875</v>
       </c>
     </row>
@@ -3028,7 +3018,7 @@
       <c r="F43" s="4" t="n">
         <v>0.049817574171545</v>
       </c>
-      <c r="G43" s="6" t="n">
+      <c r="G43" s="5" t="n">
         <v>0.1688232421875</v>
       </c>
       <c r="H43" s="4" t="n">
@@ -3037,7 +3027,7 @@
       <c r="I43" s="4" t="n">
         <v>0.0614224124146323</v>
       </c>
-      <c r="J43" s="7" t="n">
+      <c r="J43" s="5" t="n">
         <v>0.0008544921875</v>
       </c>
       <c r="K43" s="4" t="n">
@@ -3046,7 +3036,7 @@
       <c r="L43" s="4" t="n">
         <v>0.0572127529083023</v>
       </c>
-      <c r="M43" s="8" t="n">
+      <c r="M43" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="N43" s="4" t="n">
@@ -3055,7 +3045,7 @@
       <c r="O43" s="4" t="n">
         <v>0.0962701263284649</v>
       </c>
-      <c r="P43" s="9" t="n">
+      <c r="P43" s="5" t="n">
         <v>0.846923828125</v>
       </c>
       <c r="Q43" s="4" t="n">
@@ -3064,7 +3054,7 @@
       <c r="R43" s="4" t="n">
         <v>0.0918507047370213</v>
       </c>
-      <c r="S43" s="10" t="n">
+      <c r="S43" s="5" t="n">
         <v>0.0946044921875</v>
       </c>
     </row>
@@ -3087,7 +3077,7 @@
       <c r="F44" s="4" t="n">
         <v>0.0473269320014283</v>
       </c>
-      <c r="G44" s="6" t="n">
+      <c r="G44" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="H44" s="4" t="n">
@@ -3096,7 +3086,7 @@
       <c r="I44" s="4" t="n">
         <v>0.105885696649781</v>
       </c>
-      <c r="J44" s="7" t="n">
+      <c r="J44" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="K44" s="4" t="n">
@@ -3105,7 +3095,7 @@
       <c r="L44" s="4" t="n">
         <v>0.0550268055315047</v>
       </c>
-      <c r="M44" s="8" t="n">
+      <c r="M44" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="N44" s="4" t="n">
@@ -3114,7 +3104,7 @@
       <c r="O44" s="4" t="n">
         <v>0.098264013154494</v>
       </c>
-      <c r="P44" s="9" t="n">
+      <c r="P44" s="5" t="n">
         <v>0.0042724609375</v>
       </c>
       <c r="Q44" s="4" t="n">
@@ -3123,7 +3113,7 @@
       <c r="R44" s="4" t="n">
         <v>0.0908880093722593</v>
       </c>
-      <c r="S44" s="10" t="n">
+      <c r="S44" s="5" t="n">
         <v>0.00030517578125</v>
       </c>
     </row>
@@ -3146,7 +3136,7 @@
       <c r="F45" s="4" t="n">
         <v>0.222010766451281</v>
       </c>
-      <c r="G45" s="6" t="n">
+      <c r="G45" s="5" t="n">
         <v>0.03533935546875</v>
       </c>
       <c r="H45" s="4" t="n">
@@ -3155,7 +3145,7 @@
       <c r="I45" s="4" t="n">
         <v>0.352223479482418</v>
       </c>
-      <c r="J45" s="7" t="n">
+      <c r="J45" s="5" t="n">
         <v>0.33026123046875</v>
       </c>
       <c r="K45" s="4" t="n">
@@ -3164,7 +3154,7 @@
       <c r="L45" s="4" t="n">
         <v>0.219866515787223</v>
       </c>
-      <c r="M45" s="8" t="n">
+      <c r="M45" s="5" t="n">
         <v>0.1688232421875</v>
       </c>
       <c r="N45" s="4" t="n">
@@ -3173,7 +3163,7 @@
       <c r="O45" s="4" t="n">
         <v>0.185933340957749</v>
       </c>
-      <c r="P45" s="9" t="n">
+      <c r="P45" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="Q45" s="4" t="n">
@@ -3182,7 +3172,7 @@
       <c r="R45" s="4" t="n">
         <v>0.302142788661092</v>
       </c>
-      <c r="S45" s="10" t="n">
+      <c r="S45" s="5" t="n">
         <v>0.803955078125</v>
       </c>
     </row>
@@ -3205,7 +3195,7 @@
       <c r="F46" s="4" t="n">
         <v>0.0585444361722478</v>
       </c>
-      <c r="G46" s="6" t="n">
+      <c r="G46" s="5" t="n">
         <v>0.083251953125</v>
       </c>
       <c r="H46" s="4" t="n">
@@ -3214,7 +3204,7 @@
       <c r="I46" s="4" t="n">
         <v>0.133873091645224</v>
       </c>
-      <c r="J46" s="7" t="n">
+      <c r="J46" s="5" t="n">
         <v>0.01507568359375</v>
       </c>
       <c r="K46" s="4" t="n">
@@ -3223,7 +3213,7 @@
       <c r="L46" s="4" t="n">
         <v>0.117477490467165</v>
       </c>
-      <c r="M46" s="8" t="n">
+      <c r="M46" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="N46" s="4" t="n">
@@ -3232,7 +3222,7 @@
       <c r="O46" s="4" t="n">
         <v>0.0769232753634846</v>
       </c>
-      <c r="P46" s="9" t="n">
+      <c r="P46" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="Q46" s="4" t="n">
@@ -3241,7 +3231,7 @@
       <c r="R46" s="4" t="n">
         <v>0.111777035638719</v>
       </c>
-      <c r="S46" s="10" t="n">
+      <c r="S46" s="5" t="n">
         <v>0.00537109375</v>
       </c>
     </row>
@@ -3264,7 +3254,7 @@
       <c r="F47" s="4" t="n">
         <v>0.0884223818215122</v>
       </c>
-      <c r="G47" s="6" t="n">
+      <c r="G47" s="5" t="n">
         <v>0.27685546875</v>
       </c>
       <c r="H47" s="4" t="n">
@@ -3273,7 +3263,7 @@
       <c r="I47" s="4" t="n">
         <v>0.306862519151118</v>
       </c>
-      <c r="J47" s="7" t="n">
+      <c r="J47" s="5" t="n">
         <v>0.00262451171875</v>
       </c>
       <c r="K47" s="4" t="n">
@@ -3282,7 +3272,7 @@
       <c r="L47" s="4" t="n">
         <v>0.231303470899659</v>
       </c>
-      <c r="M47" s="8" t="n">
+      <c r="M47" s="5" t="n">
         <v>0.67877197265625</v>
       </c>
       <c r="N47" s="4" t="n">
@@ -3291,7 +3281,7 @@
       <c r="O47" s="4" t="n">
         <v>0.0720624715886832</v>
       </c>
-      <c r="P47" s="9" t="n">
+      <c r="P47" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q47" s="4" t="n">
@@ -3300,7 +3290,7 @@
       <c r="R47" s="4" t="n">
         <v>0.205211309190373</v>
       </c>
-      <c r="S47" s="10" t="n">
+      <c r="S47" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
     </row>
@@ -3323,7 +3313,7 @@
       <c r="F48" s="4" t="n">
         <v>0.0521271504373496</v>
       </c>
-      <c r="G48" s="6" t="n">
+      <c r="G48" s="5" t="n">
         <v>0.1876220703125</v>
       </c>
       <c r="H48" s="4" t="n">
@@ -3332,7 +3322,7 @@
       <c r="I48" s="4" t="n">
         <v>0.130185717273186</v>
       </c>
-      <c r="J48" s="7" t="n">
+      <c r="J48" s="5" t="n">
         <v>0.27685546875</v>
       </c>
       <c r="K48" s="4" t="n">
@@ -3341,7 +3331,7 @@
       <c r="L48" s="4" t="n">
         <v>0.074202944863238</v>
       </c>
-      <c r="M48" s="8" t="n">
+      <c r="M48" s="5" t="n">
         <v>0.072998046875</v>
       </c>
       <c r="N48" s="4" t="n">
@@ -3350,7 +3340,7 @@
       <c r="O48" s="4" t="n">
         <v>0.102658216871639</v>
       </c>
-      <c r="P48" s="9" t="n">
+      <c r="P48" s="5" t="n">
         <v>0.7197265625</v>
       </c>
       <c r="Q48" s="4" t="n">
@@ -3359,7 +3349,7 @@
       <c r="R48" s="4" t="n">
         <v>0.126684729136978</v>
       </c>
-      <c r="S48" s="10" t="n">
+      <c r="S48" s="5" t="n">
         <v>0.93408203125</v>
       </c>
     </row>
@@ -3382,7 +3372,7 @@
       <c r="F49" s="4" t="n">
         <v>0.0776594039068263</v>
       </c>
-      <c r="G49" s="6" t="n">
+      <c r="G49" s="5" t="n">
         <v>0.083251953125</v>
       </c>
       <c r="H49" s="4" t="n">
@@ -3391,7 +3381,7 @@
       <c r="I49" s="4" t="n">
         <v>0.191087833922097</v>
       </c>
-      <c r="J49" s="7" t="n">
+      <c r="J49" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
       <c r="K49" s="4" t="n">
@@ -3400,7 +3390,7 @@
       <c r="L49" s="4" t="n">
         <v>0.13274761336406</v>
       </c>
-      <c r="M49" s="8" t="n">
+      <c r="M49" s="5" t="n">
         <v>0.00201416015625</v>
       </c>
       <c r="N49" s="4" t="n">
@@ -3409,7 +3399,7 @@
       <c r="O49" s="4" t="n">
         <v>0.0814948578430574</v>
       </c>
-      <c r="P49" s="9" t="n">
+      <c r="P49" s="5" t="n">
         <v>0.0067138671875</v>
       </c>
       <c r="Q49" s="4" t="n">
@@ -3418,7 +3408,7 @@
       <c r="R49" s="4" t="n">
         <v>0.131126156024848</v>
       </c>
-      <c r="S49" s="10" t="n">
+      <c r="S49" s="5" t="n">
         <v>0.00030517578125</v>
       </c>
     </row>
@@ -3441,7 +3431,7 @@
       <c r="F50" s="4" t="n">
         <v>0.0455705367716627</v>
       </c>
-      <c r="G50" s="6" t="n">
+      <c r="G50" s="5" t="n">
         <v>0.12054443359375</v>
       </c>
       <c r="H50" s="4" t="n">
@@ -3450,7 +3440,7 @@
       <c r="I50" s="4" t="n">
         <v>0.133634049855117</v>
       </c>
-      <c r="J50" s="7" t="n">
+      <c r="J50" s="5" t="n">
         <v>0.42120361328125</v>
       </c>
       <c r="K50" s="4" t="n">
@@ -3459,7 +3449,7 @@
       <c r="L50" s="4" t="n">
         <v>0.10797198020681</v>
       </c>
-      <c r="M50" s="8" t="n">
+      <c r="M50" s="5" t="n">
         <v>0.67877197265625</v>
       </c>
       <c r="N50" s="4" t="n">
@@ -3468,7 +3458,7 @@
       <c r="O50" s="4" t="n">
         <v>0.0272036836306466</v>
       </c>
-      <c r="P50" s="9" t="n">
+      <c r="P50" s="5" t="n">
         <v>0.00115966796875</v>
       </c>
       <c r="Q50" s="4" t="n">
@@ -3477,7 +3467,7 @@
       <c r="R50" s="4" t="n">
         <v>0.100370708223379</v>
       </c>
-      <c r="S50" s="10" t="n">
+      <c r="S50" s="5" t="n">
         <v>0.1353759765625</v>
       </c>
     </row>
@@ -3500,7 +3490,7 @@
       <c r="F51" s="4" t="n">
         <v>0.0683593355337177</v>
       </c>
-      <c r="G51" s="6" t="n">
+      <c r="G51" s="5" t="n">
         <v>0.05535888671875</v>
       </c>
       <c r="H51" s="4" t="n">
@@ -3509,7 +3499,7 @@
       <c r="I51" s="4" t="n">
         <v>0.152208693769895</v>
       </c>
-      <c r="J51" s="7" t="n">
+      <c r="J51" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
       <c r="K51" s="4" t="n">
@@ -3518,7 +3508,7 @@
       <c r="L51" s="4" t="n">
         <v>0.0649554448368221</v>
       </c>
-      <c r="M51" s="8" t="n">
+      <c r="M51" s="5" t="n">
         <v>0.00030517578125</v>
       </c>
       <c r="N51" s="4" t="n">
@@ -3527,7 +3517,7 @@
       <c r="O51" s="4" t="n">
         <v>0.142688166225095</v>
       </c>
-      <c r="P51" s="9" t="n">
+      <c r="P51" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="Q51" s="4" t="n">
@@ -3536,7 +3526,7 @@
       <c r="R51" s="4" t="n">
         <v>0.167317451286389</v>
       </c>
-      <c r="S51" s="10" t="n">
+      <c r="S51" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
     </row>
@@ -3559,7 +3549,7 @@
       <c r="F52" s="4" t="n">
         <v>0.32575722965896</v>
       </c>
-      <c r="G52" s="6" t="n">
+      <c r="G52" s="5" t="n">
         <v>0.00042724609375</v>
       </c>
       <c r="H52" s="4" t="n">
@@ -3568,7 +3558,7 @@
       <c r="I52" s="4" t="n">
         <v>0.71406489415531</v>
       </c>
-      <c r="J52" s="7" t="n">
+      <c r="J52" s="5" t="n">
         <v>0.041259765625</v>
       </c>
       <c r="K52" s="4" t="n">
@@ -3577,7 +3567,7 @@
       <c r="L52" s="4" t="n">
         <v>0.522525312584442</v>
       </c>
-      <c r="M52" s="8" t="n">
+      <c r="M52" s="5" t="n">
         <v>0.012451171875</v>
       </c>
       <c r="N52" s="4" t="n">
@@ -3586,7 +3576,7 @@
       <c r="O52" s="4" t="n">
         <v>0.672830115945572</v>
       </c>
-      <c r="P52" s="9" t="n">
+      <c r="P52" s="5" t="n">
         <v>0.00262451171875</v>
       </c>
       <c r="Q52" s="4" t="n">
@@ -3595,7 +3585,7 @@
       <c r="R52" s="4" t="n">
         <v>0.804970976371735</v>
       </c>
-      <c r="S52" s="10" t="n">
+      <c r="S52" s="5" t="n">
         <v>0.0301513671875</v>
       </c>
     </row>
@@ -3618,7 +3608,7 @@
       <c r="F53" s="4" t="n">
         <v>0.0561067165463564</v>
       </c>
-      <c r="G53" s="6" t="n">
+      <c r="G53" s="5" t="n">
         <v>0.083251953125</v>
       </c>
       <c r="H53" s="4" t="n">
@@ -3627,7 +3617,7 @@
       <c r="I53" s="4" t="n">
         <v>0.103210953935324</v>
       </c>
-      <c r="J53" s="7" t="n">
+      <c r="J53" s="5" t="n">
         <v>0.1688232421875</v>
       </c>
       <c r="K53" s="4" t="n">
@@ -3636,7 +3626,7 @@
       <c r="L53" s="4" t="n">
         <v>0.0912495512976542</v>
       </c>
-      <c r="M53" s="8" t="n">
+      <c r="M53" s="5" t="n">
         <v>0.207763671875</v>
       </c>
       <c r="N53" s="4" t="n">
@@ -3645,7 +3635,7 @@
       <c r="O53" s="4" t="n">
         <v>0.0711370631020267</v>
       </c>
-      <c r="P53" s="9" t="n">
+      <c r="P53" s="5" t="n">
         <v>0.0946044921875</v>
       </c>
       <c r="Q53" s="4" t="n">
@@ -3654,7 +3644,7 @@
       <c r="R53" s="4" t="n">
         <v>0.0918474097746751</v>
       </c>
-      <c r="S53" s="10" t="n">
+      <c r="S53" s="5" t="n">
         <v>0.30279541015625</v>
       </c>
     </row>
@@ -3677,7 +3667,7 @@
       <c r="F54" s="4" t="n">
         <v>0.0769229501105709</v>
       </c>
-      <c r="G54" s="6" t="n">
+      <c r="G54" s="5" t="n">
         <v>0.42120361328125</v>
       </c>
       <c r="H54" s="4" t="n">
@@ -3686,7 +3676,7 @@
       <c r="I54" s="4" t="n">
         <v>0.13470639185312</v>
       </c>
-      <c r="J54" s="7" t="n">
+      <c r="J54" s="5" t="n">
         <v>0.52447509765625</v>
       </c>
       <c r="K54" s="4" t="n">
@@ -3695,7 +3685,7 @@
       <c r="L54" s="4" t="n">
         <v>0.122721157554303</v>
       </c>
-      <c r="M54" s="8" t="n">
+      <c r="M54" s="5" t="n">
         <v>0.52447509765625</v>
       </c>
       <c r="N54" s="4" t="n">
@@ -3704,7 +3694,7 @@
       <c r="O54" s="4" t="n">
         <v>0.194411046446168</v>
       </c>
-      <c r="P54" s="9" t="n">
+      <c r="P54" s="5" t="n">
         <v>0.5614013671875</v>
       </c>
       <c r="Q54" s="4" t="n">
@@ -3713,7 +3703,7 @@
       <c r="R54" s="4" t="n">
         <v>0.183507890490795</v>
       </c>
-      <c r="S54" s="10" t="n">
+      <c r="S54" s="5" t="n">
         <v>0.207763671875</v>
       </c>
     </row>
@@ -3736,7 +3726,7 @@
       <c r="F55" s="4" t="n">
         <v>0.0656912036340112</v>
       </c>
-      <c r="G55" s="6" t="n">
+      <c r="G55" s="5" t="n">
         <v>0.083251953125</v>
       </c>
       <c r="H55" s="4" t="n">
@@ -3745,7 +3735,7 @@
       <c r="I55" s="4" t="n">
         <v>0.0967453739577524</v>
       </c>
-      <c r="J55" s="7" t="n">
+      <c r="J55" s="5" t="n">
         <v>0.0042724609375</v>
       </c>
       <c r="K55" s="4" t="n">
@@ -3754,7 +3744,7 @@
       <c r="L55" s="4" t="n">
         <v>0.0684061391140153</v>
       </c>
-      <c r="M55" s="8" t="n">
+      <c r="M55" s="5" t="n">
         <v>0.0008544921875</v>
       </c>
       <c r="N55" s="4" t="n">
@@ -3763,7 +3753,7 @@
       <c r="O55" s="4" t="n">
         <v>0.0767890586144485</v>
       </c>
-      <c r="P55" s="9" t="n">
+      <c r="P55" s="5" t="n">
         <v>0.012451171875</v>
       </c>
       <c r="Q55" s="4" t="n">
@@ -3772,7 +3762,7 @@
       <c r="R55" s="4" t="n">
         <v>0.076478814184761</v>
       </c>
-      <c r="S55" s="10" t="n">
+      <c r="S55" s="5" t="n">
         <v>0.00152587890625</v>
       </c>
     </row>
@@ -3795,7 +3785,7 @@
       <c r="F56" s="4" t="n">
         <v>0.0810164851817669</v>
       </c>
-      <c r="G56" s="6" t="n">
+      <c r="G56" s="5" t="n">
         <v>0.10699462890625</v>
       </c>
       <c r="H56" s="4" t="n">
@@ -3804,7 +3794,7 @@
       <c r="I56" s="4" t="n">
         <v>0.12489791616381</v>
       </c>
-      <c r="J56" s="7" t="n">
+      <c r="J56" s="5" t="n">
         <v>0.03533935546875</v>
       </c>
       <c r="K56" s="4" t="n">
@@ -3813,7 +3803,7 @@
       <c r="L56" s="4" t="n">
         <v>0.104359998454592</v>
       </c>
-      <c r="M56" s="8" t="n">
+      <c r="M56" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="N56" s="4" t="n">
@@ -3822,7 +3812,7 @@
       <c r="O56" s="4" t="n">
         <v>0.0448854807045332</v>
       </c>
-      <c r="P56" s="9" t="n">
+      <c r="P56" s="5" t="n">
         <v>0.00152587890625</v>
       </c>
       <c r="Q56" s="4" t="n">
@@ -3831,7 +3821,7 @@
       <c r="R56" s="4" t="n">
         <v>0.100355051296723</v>
       </c>
-      <c r="S56" s="10" t="n">
+      <c r="S56" s="5" t="n">
         <v>0.01025390625</v>
       </c>
     </row>
@@ -3854,7 +3844,7 @@
       <c r="F57" s="4" t="n">
         <v>0.0596454468051773</v>
       </c>
-      <c r="G57" s="6" t="n">
+      <c r="G57" s="5" t="n">
         <v>0.041259765625</v>
       </c>
       <c r="H57" s="4" t="n">
@@ -3863,7 +3853,7 @@
       <c r="I57" s="4" t="n">
         <v>0.0980212313524759</v>
       </c>
-      <c r="J57" s="7" t="n">
+      <c r="J57" s="5" t="n">
         <v>0.1876220703125</v>
       </c>
       <c r="K57" s="4" t="n">
@@ -3872,7 +3862,7 @@
       <c r="L57" s="4" t="n">
         <v>0.0695796531223768</v>
       </c>
-      <c r="M57" s="8" t="n">
+      <c r="M57" s="5" t="n">
         <v>0.1353759765625</v>
       </c>
       <c r="N57" s="4" t="n">
@@ -3881,7 +3871,7 @@
       <c r="O57" s="4" t="n">
         <v>0.0876599555950662</v>
       </c>
-      <c r="P57" s="9" t="n">
+      <c r="P57" s="5" t="n">
         <v>0.04791259765625</v>
       </c>
       <c r="Q57" s="4" t="n">
@@ -3890,7 +3880,7 @@
       <c r="R57" s="4" t="n">
         <v>0.0933424306366029</v>
       </c>
-      <c r="S57" s="10" t="n">
+      <c r="S57" s="5" t="n">
         <v>0.1688232421875</v>
       </c>
     </row>
@@ -3913,7 +3903,7 @@
       <c r="F58" s="4" t="n">
         <v>0.077822362426187</v>
       </c>
-      <c r="G58" s="6" t="n">
+      <c r="G58" s="5" t="n">
         <v>0.041259765625</v>
       </c>
       <c r="H58" s="4" t="n">
@@ -3922,7 +3912,7 @@
       <c r="I58" s="4" t="n">
         <v>0.140278803463563</v>
       </c>
-      <c r="J58" s="7" t="n">
+      <c r="J58" s="5" t="n">
         <v>0.00115966796875</v>
       </c>
       <c r="K58" s="4" t="n">
@@ -3931,7 +3921,7 @@
       <c r="L58" s="4" t="n">
         <v>0.0730447443704899</v>
       </c>
-      <c r="M58" s="8" t="n">
+      <c r="M58" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="N58" s="4" t="n">
@@ -3940,7 +3930,7 @@
       <c r="O58" s="4" t="n">
         <v>0.111782499096306</v>
       </c>
-      <c r="P58" s="9" t="n">
+      <c r="P58" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="Q58" s="4" t="n">
@@ -3949,7 +3939,7 @@
       <c r="R58" s="4" t="n">
         <v>0.14786379193803</v>
       </c>
-      <c r="S58" s="10" t="n">
+      <c r="S58" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
     </row>
@@ -3972,7 +3962,7 @@
       <c r="F59" s="4" t="n">
         <v>0.0600625111250246</v>
       </c>
-      <c r="G59" s="6" t="n">
+      <c r="G59" s="5" t="n">
         <v>0.803955078125</v>
       </c>
       <c r="H59" s="4" t="n">
@@ -3981,7 +3971,7 @@
       <c r="I59" s="4" t="n">
         <v>0.126016025134233</v>
       </c>
-      <c r="J59" s="7" t="n">
+      <c r="J59" s="5" t="n">
         <v>0.0301513671875</v>
       </c>
       <c r="K59" s="4" t="n">
@@ -3990,7 +3980,7 @@
       <c r="L59" s="4" t="n">
         <v>0.0883277609239605</v>
       </c>
-      <c r="M59" s="8" t="n">
+      <c r="M59" s="5" t="n">
         <v>0.083251953125</v>
       </c>
       <c r="N59" s="4" t="n">
@@ -3999,7 +3989,7 @@
       <c r="O59" s="4" t="n">
         <v>0.0905258716817341</v>
       </c>
-      <c r="P59" s="9" t="n">
+      <c r="P59" s="5" t="n">
         <v>0.846923828125</v>
       </c>
       <c r="Q59" s="4" t="n">
@@ -4008,7 +3998,7 @@
       <c r="R59" s="4" t="n">
         <v>0.093827393108947</v>
       </c>
-      <c r="S59" s="10" t="n">
+      <c r="S59" s="5" t="n">
         <v>0.012451171875</v>
       </c>
     </row>
@@ -4031,7 +4021,7 @@
       <c r="F60" s="4" t="n">
         <v>0.0271619327217811</v>
       </c>
-      <c r="G60" s="6" t="n">
+      <c r="G60" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="H60" s="4" t="n">
@@ -4040,7 +4030,7 @@
       <c r="I60" s="4" t="n">
         <v>0.0597209920401616</v>
       </c>
-      <c r="J60" s="7" t="n">
+      <c r="J60" s="5" t="n">
         <v>0.97796630859375</v>
       </c>
       <c r="K60" s="4" t="n">
@@ -4049,7 +4039,7 @@
       <c r="L60" s="4" t="n">
         <v>0.0709683847377093</v>
       </c>
-      <c r="M60" s="8" t="n">
+      <c r="M60" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="N60" s="4" t="n">
@@ -4058,7 +4048,7 @@
       <c r="O60" s="4" t="n">
         <v>0.0668750833282216</v>
       </c>
-      <c r="P60" s="9" t="n">
+      <c r="P60" s="5" t="n">
         <v>0.45428466796875</v>
       </c>
       <c r="Q60" s="4" t="n">
@@ -4067,7 +4057,7 @@
       <c r="R60" s="4" t="n">
         <v>0.0836843722371749</v>
       </c>
-      <c r="S60" s="10" t="n">
+      <c r="S60" s="5" t="n">
         <v>0.890380859375</v>
       </c>
     </row>
@@ -4090,7 +4080,7 @@
       <c r="F61" s="4" t="n">
         <v>0.0665599849771292</v>
       </c>
-      <c r="G61" s="6" t="n">
+      <c r="G61" s="5" t="n">
         <v>0.5614013671875</v>
       </c>
       <c r="H61" s="4" t="n">
@@ -4099,7 +4089,7 @@
       <c r="I61" s="4" t="n">
         <v>0.085676249273853</v>
       </c>
-      <c r="J61" s="7" t="n">
+      <c r="J61" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K61" s="4" t="n">
@@ -4108,7 +4098,7 @@
       <c r="L61" s="4" t="n">
         <v>0.0636827343458001</v>
       </c>
-      <c r="M61" s="8" t="n">
+      <c r="M61" s="5" t="n">
         <v>0.02557373046875</v>
       </c>
       <c r="N61" s="4" t="n">
@@ -4117,7 +4107,7 @@
       <c r="O61" s="4" t="n">
         <v>0.0949885791519741</v>
       </c>
-      <c r="P61" s="9" t="n">
+      <c r="P61" s="5" t="n">
         <v>0.42120361328125</v>
       </c>
       <c r="Q61" s="4" t="n">
@@ -4126,7 +4116,7 @@
       <c r="R61" s="4" t="n">
         <v>0.075968310350186</v>
       </c>
-      <c r="S61" s="10" t="n">
+      <c r="S61" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4149,7 +4139,7 @@
       <c r="F62" s="4" t="n">
         <v>0.0461724323666105</v>
       </c>
-      <c r="G62" s="6" t="n">
+      <c r="G62" s="5" t="n">
         <v>0.207763671875</v>
       </c>
       <c r="H62" s="4" t="n">
@@ -4158,7 +4148,7 @@
       <c r="I62" s="4" t="n">
         <v>0.0712132366551119</v>
       </c>
-      <c r="J62" s="7" t="n">
+      <c r="J62" s="5" t="n">
         <v>0.04791259765625</v>
       </c>
       <c r="K62" s="4" t="n">
@@ -4167,7 +4157,7 @@
       <c r="L62" s="4" t="n">
         <v>0.0666830268691693</v>
       </c>
-      <c r="M62" s="8" t="n">
+      <c r="M62" s="5" t="n">
         <v>0.0946044921875</v>
       </c>
       <c r="N62" s="4" t="n">
@@ -4176,7 +4166,7 @@
       <c r="O62" s="4" t="n">
         <v>0.0696630716588029</v>
       </c>
-      <c r="P62" s="9" t="n">
+      <c r="P62" s="5" t="n">
         <v>0.5994873046875</v>
       </c>
       <c r="Q62" s="4" t="n">
@@ -4185,7 +4175,7 @@
       <c r="R62" s="4" t="n">
         <v>0.0890396338240001</v>
       </c>
-      <c r="S62" s="10" t="n">
+      <c r="S62" s="5" t="n">
         <v>0.48870849609375</v>
       </c>
     </row>
@@ -4208,7 +4198,7 @@
       <c r="F63" s="4" t="n">
         <v>0.0761957205045482</v>
       </c>
-      <c r="G63" s="6" t="n">
+      <c r="G63" s="5" t="n">
         <v>0.30279541015625</v>
       </c>
       <c r="H63" s="4" t="n">
@@ -4217,7 +4207,7 @@
       <c r="I63" s="4" t="n">
         <v>0.254372566033999</v>
       </c>
-      <c r="J63" s="7" t="n">
+      <c r="J63" s="5" t="n">
         <v>0.10699462890625</v>
       </c>
       <c r="K63" s="4" t="n">
@@ -4226,7 +4216,7 @@
       <c r="L63" s="4" t="n">
         <v>0.11740513516619</v>
       </c>
-      <c r="M63" s="8" t="n">
+      <c r="M63" s="5" t="n">
         <v>0.0067138671875</v>
       </c>
       <c r="N63" s="4" t="n">
@@ -4235,7 +4225,7 @@
       <c r="O63" s="4" t="n">
         <v>0.114449254432464</v>
       </c>
-      <c r="P63" s="9" t="n">
+      <c r="P63" s="5" t="n">
         <v>0.33026123046875</v>
       </c>
       <c r="Q63" s="4" t="n">
@@ -4244,7 +4234,7 @@
       <c r="R63" s="4" t="n">
         <v>0.230892638727931</v>
       </c>
-      <c r="S63" s="10" t="n">
+      <c r="S63" s="5" t="n">
         <v>0.0946044921875</v>
       </c>
     </row>
@@ -4267,7 +4257,7 @@
       <c r="F64" s="4" t="n">
         <v>0.0542067846890664</v>
       </c>
-      <c r="G64" s="6" t="n">
+      <c r="G64" s="5" t="n">
         <v>0.5614013671875</v>
       </c>
       <c r="H64" s="4" t="n">
@@ -4276,7 +4266,7 @@
       <c r="I64" s="4" t="n">
         <v>0.0740803859705354</v>
       </c>
-      <c r="J64" s="7" t="n">
+      <c r="J64" s="5" t="n">
         <v>0.10699462890625</v>
       </c>
       <c r="K64" s="4" t="n">
@@ -4285,7 +4275,7 @@
       <c r="L64" s="4" t="n">
         <v>0.0848277212572671</v>
       </c>
-      <c r="M64" s="8" t="n">
+      <c r="M64" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="N64" s="4" t="n">
@@ -4294,7 +4284,7 @@
       <c r="O64" s="4" t="n">
         <v>0.0804176324407483</v>
       </c>
-      <c r="P64" s="9" t="n">
+      <c r="P64" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q64" s="4" t="n">
@@ -4303,7 +4293,7 @@
       <c r="R64" s="4" t="n">
         <v>0.0787667107220885</v>
       </c>
-      <c r="S64" s="10" t="n">
+      <c r="S64" s="5" t="n">
         <v>0.1688232421875</v>
       </c>
     </row>
@@ -4326,7 +4316,7 @@
       <c r="F65" s="4" t="n">
         <v>0.0789912937278289</v>
       </c>
-      <c r="G65" s="6" t="n">
+      <c r="G65" s="5" t="n">
         <v>0.063720703125</v>
       </c>
       <c r="H65" s="4" t="n">
@@ -4335,7 +4325,7 @@
       <c r="I65" s="4" t="n">
         <v>0.177676420799376</v>
       </c>
-      <c r="J65" s="7" t="n">
+      <c r="J65" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
       <c r="K65" s="4" t="n">
@@ -4344,7 +4334,7 @@
       <c r="L65" s="4" t="n">
         <v>0.121751723438986</v>
       </c>
-      <c r="M65" s="8" t="n">
+      <c r="M65" s="5" t="n">
         <v>0.00262451171875</v>
       </c>
       <c r="N65" s="4" t="n">
@@ -4353,7 +4343,7 @@
       <c r="O65" s="4" t="n">
         <v>0.115111238387184</v>
       </c>
-      <c r="P65" s="9" t="n">
+      <c r="P65" s="5" t="n">
         <v>0.04791259765625</v>
       </c>
       <c r="Q65" s="4" t="n">
@@ -4362,7 +4352,7 @@
       <c r="R65" s="4" t="n">
         <v>0.187745872413761</v>
       </c>
-      <c r="S65" s="10" t="n">
+      <c r="S65" s="5" t="n">
         <v>0.00335693359375</v>
       </c>
     </row>
@@ -4385,7 +4375,7 @@
       <c r="F66" s="4" t="n">
         <v>0.0756522340703902</v>
       </c>
-      <c r="G66" s="6" t="n">
+      <c r="G66" s="5" t="n">
         <v>0.12054443359375</v>
       </c>
       <c r="H66" s="4" t="n">
@@ -4394,7 +4384,7 @@
       <c r="I66" s="4" t="n">
         <v>0.0792881797819725</v>
       </c>
-      <c r="J66" s="7" t="n">
+      <c r="J66" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="K66" s="4" t="n">
@@ -4403,7 +4393,7 @@
       <c r="L66" s="4" t="n">
         <v>0.0683209276212872</v>
       </c>
-      <c r="M66" s="8" t="n">
+      <c r="M66" s="5" t="n">
         <v>0.02154541015625</v>
       </c>
       <c r="N66" s="4" t="n">
@@ -4412,7 +4402,7 @@
       <c r="O66" s="4" t="n">
         <v>0.0884596307176586</v>
       </c>
-      <c r="P66" s="9" t="n">
+      <c r="P66" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="Q66" s="4" t="n">
@@ -4421,7 +4411,7 @@
       <c r="R66" s="4" t="n">
         <v>0.0858133241360303</v>
       </c>
-      <c r="S66" s="10" t="n">
+      <c r="S66" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
     </row>
@@ -4444,7 +4434,7 @@
       <c r="F67" s="4" t="n">
         <v>0.0617583773626584</v>
       </c>
-      <c r="G67" s="6" t="n">
+      <c r="G67" s="5" t="n">
         <v>0.33026123046875</v>
       </c>
       <c r="H67" s="4" t="n">
@@ -4453,7 +4443,7 @@
       <c r="I67" s="4" t="n">
         <v>0.0761376576203404</v>
       </c>
-      <c r="J67" s="7" t="n">
+      <c r="J67" s="5" t="n">
         <v>0.753610350301361</v>
       </c>
       <c r="K67" s="4" t="n">
@@ -4462,7 +4452,7 @@
       <c r="L67" s="4" t="n">
         <v>0.0874996310284536</v>
       </c>
-      <c r="M67" s="8" t="n">
+      <c r="M67" s="5" t="n">
         <v>0.01806640625</v>
       </c>
       <c r="N67" s="4" t="n">
@@ -4471,7 +4461,7 @@
       <c r="O67" s="4" t="n">
         <v>0.0545112203669224</v>
       </c>
-      <c r="P67" s="9" t="n">
+      <c r="P67" s="5" t="n">
         <v>0.0042724609375</v>
       </c>
       <c r="Q67" s="4" t="n">
@@ -4480,7 +4470,7 @@
       <c r="R67" s="4" t="n">
         <v>0.0848293527806963</v>
       </c>
-      <c r="S67" s="10" t="n">
+      <c r="S67" s="5" t="n">
         <v>0.97796630859375</v>
       </c>
     </row>
@@ -4503,7 +4493,7 @@
       <c r="F68" s="4" t="n">
         <v>0.0934002685024298</v>
       </c>
-      <c r="G68" s="6" t="n">
+      <c r="G68" s="5" t="n">
         <v>0.02557373046875</v>
       </c>
       <c r="H68" s="4" t="n">
@@ -4512,7 +4502,7 @@
       <c r="I68" s="4" t="n">
         <v>0.159374437169564</v>
       </c>
-      <c r="J68" s="7" t="n">
+      <c r="J68" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="K68" s="4" t="n">
@@ -4521,7 +4511,7 @@
       <c r="L68" s="4" t="n">
         <v>0.13925200299196</v>
       </c>
-      <c r="M68" s="8" t="n">
+      <c r="M68" s="5" t="n">
         <v>0.03533935546875</v>
       </c>
       <c r="N68" s="4" t="n">
@@ -4530,7 +4520,7 @@
       <c r="O68" s="4" t="n">
         <v>0.0961025952775419</v>
       </c>
-      <c r="P68" s="9" t="n">
+      <c r="P68" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="Q68" s="4" t="n">
@@ -4539,7 +4529,7 @@
       <c r="R68" s="4" t="n">
         <v>0.163262722662735</v>
       </c>
-      <c r="S68" s="10" t="n">
+      <c r="S68" s="5" t="n">
         <v>0.00335693359375</v>
       </c>
     </row>
@@ -4562,7 +4552,7 @@
       <c r="F69" s="4" t="n">
         <v>0.0729638173526167</v>
       </c>
-      <c r="G69" s="6" t="n">
+      <c r="G69" s="5" t="n">
         <v>0.42120361328125</v>
       </c>
       <c r="H69" s="4" t="n">
@@ -4571,7 +4561,7 @@
       <c r="I69" s="4" t="n">
         <v>0.125327405799409</v>
       </c>
-      <c r="J69" s="7" t="n">
+      <c r="J69" s="5" t="n">
         <v>0.890380859375</v>
       </c>
       <c r="K69" s="4" t="n">
@@ -4580,7 +4570,7 @@
       <c r="L69" s="4" t="n">
         <v>0.10513433484229</v>
       </c>
-      <c r="M69" s="8" t="n">
+      <c r="M69" s="5" t="n">
         <v>0.48870849609375</v>
       </c>
       <c r="N69" s="4" t="n">
@@ -4589,7 +4579,7 @@
       <c r="O69" s="4" t="n">
         <v>0.0941721932983424</v>
       </c>
-      <c r="P69" s="9" t="n">
+      <c r="P69" s="5" t="n">
         <v>0.45428466796875</v>
       </c>
       <c r="Q69" s="4" t="n">
@@ -4598,7 +4588,7 @@
       <c r="R69" s="4" t="n">
         <v>0.127791545150648</v>
       </c>
-      <c r="S69" s="10" t="n">
+      <c r="S69" s="5" t="n">
         <v>0.45428466796875</v>
       </c>
     </row>
@@ -4621,7 +4611,7 @@
       <c r="F70" s="4" t="n">
         <v>0.0624503986811526</v>
       </c>
-      <c r="G70" s="6" t="n">
+      <c r="G70" s="5" t="n">
         <v>0.05535888671875</v>
       </c>
       <c r="H70" s="4" t="n">
@@ -4630,7 +4620,7 @@
       <c r="I70" s="4" t="n">
         <v>0.117971296081611</v>
       </c>
-      <c r="J70" s="7" t="n">
+      <c r="J70" s="5" t="n">
         <v>0.00335693359375</v>
       </c>
       <c r="K70" s="4" t="n">
@@ -4639,7 +4629,7 @@
       <c r="L70" s="4" t="n">
         <v>0.0695908033517681</v>
       </c>
-      <c r="M70" s="8" t="n">
+      <c r="M70" s="5" t="n">
         <v>0.00262451171875</v>
       </c>
       <c r="N70" s="4" t="n">
@@ -4648,7 +4638,7 @@
       <c r="O70" s="4" t="n">
         <v>0.0973056076332154</v>
       </c>
-      <c r="P70" s="9" t="n">
+      <c r="P70" s="5" t="n">
         <v>0.05535888671875</v>
       </c>
       <c r="Q70" s="4" t="n">
@@ -4657,7 +4647,7 @@
       <c r="R70" s="4" t="n">
         <v>0.122796250243219</v>
       </c>
-      <c r="S70" s="10" t="n">
+      <c r="S70" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
     </row>
@@ -4680,7 +4670,7 @@
       <c r="F71" s="4" t="n">
         <v>0.103863797454449</v>
       </c>
-      <c r="G71" s="6" t="n">
+      <c r="G71" s="5" t="n">
         <v>0.27685546875</v>
       </c>
       <c r="H71" s="4" t="n">
@@ -4689,7 +4679,7 @@
       <c r="I71" s="4" t="n">
         <v>0.273425374568276</v>
       </c>
-      <c r="J71" s="7" t="n">
+      <c r="J71" s="5" t="n">
         <v>0.638671875</v>
       </c>
       <c r="K71" s="4" t="n">
@@ -4698,7 +4688,7 @@
       <c r="L71" s="4" t="n">
         <v>0.221905073014084</v>
       </c>
-      <c r="M71" s="8" t="n">
+      <c r="M71" s="5" t="n">
         <v>0.97796630859375</v>
       </c>
       <c r="N71" s="4" t="n">
@@ -4707,7 +4697,7 @@
       <c r="O71" s="4" t="n">
         <v>0.144026839054145</v>
       </c>
-      <c r="P71" s="9" t="n">
+      <c r="P71" s="5" t="n">
         <v>0.5614013671875</v>
       </c>
       <c r="Q71" s="4" t="n">
@@ -4716,7 +4706,7 @@
       <c r="R71" s="4" t="n">
         <v>0.312456445134423</v>
       </c>
-      <c r="S71" s="10" t="n">
+      <c r="S71" s="5" t="n">
         <v>0.846923828125</v>
       </c>
     </row>
@@ -4739,7 +4729,7 @@
       <c r="F72" s="4" t="n">
         <v>0.0473007660485977</v>
       </c>
-      <c r="G72" s="6" t="n">
+      <c r="G72" s="5" t="n">
         <v>0.45428466796875</v>
       </c>
       <c r="H72" s="4" t="n">
@@ -4748,7 +4738,7 @@
       <c r="I72" s="4" t="n">
         <v>0.127763595342078</v>
       </c>
-      <c r="J72" s="7" t="n">
+      <c r="J72" s="5" t="n">
         <v>0.02557373046875</v>
       </c>
       <c r="K72" s="4" t="n">
@@ -4757,7 +4747,7 @@
       <c r="L72" s="4" t="n">
         <v>0.0711091810217501</v>
       </c>
-      <c r="M72" s="8" t="n">
+      <c r="M72" s="5" t="n">
         <v>0.0067138671875</v>
       </c>
       <c r="N72" s="4" t="n">
@@ -4766,7 +4756,7 @@
       <c r="O72" s="4" t="n">
         <v>0.0777985102050662</v>
       </c>
-      <c r="P72" s="9" t="n">
+      <c r="P72" s="5" t="n">
         <v>0.10699462890625</v>
       </c>
       <c r="Q72" s="4" t="n">
@@ -4775,7 +4765,7 @@
       <c r="R72" s="4" t="n">
         <v>0.0937522542483783</v>
       </c>
-      <c r="S72" s="10" t="n">
+      <c r="S72" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
     </row>
@@ -4798,7 +4788,7 @@
       <c r="F73" s="4" t="n">
         <v>0.0739938499301514</v>
       </c>
-      <c r="G73" s="6" t="n">
+      <c r="G73" s="5" t="n">
         <v>0.42120361328125</v>
       </c>
       <c r="H73" s="4" t="n">
@@ -4807,7 +4797,7 @@
       <c r="I73" s="4" t="n">
         <v>0.120342537111937</v>
       </c>
-      <c r="J73" s="7" t="n">
+      <c r="J73" s="5" t="n">
         <v>0.45428466796875</v>
       </c>
       <c r="K73" s="4" t="n">
@@ -4816,7 +4806,7 @@
       <c r="L73" s="4" t="n">
         <v>0.146262428694181</v>
       </c>
-      <c r="M73" s="8" t="n">
+      <c r="M73" s="5" t="n">
         <v>0.803955078125</v>
       </c>
       <c r="N73" s="4" t="n">
@@ -4825,7 +4815,7 @@
       <c r="O73" s="4" t="n">
         <v>0.165845788365874</v>
       </c>
-      <c r="P73" s="9" t="n">
+      <c r="P73" s="5" t="n">
         <v>0.22930908203125</v>
       </c>
       <c r="Q73" s="4" t="n">
@@ -4834,7 +4824,7 @@
       <c r="R73" s="4" t="n">
         <v>0.13427126403183</v>
       </c>
-      <c r="S73" s="10" t="n">
+      <c r="S73" s="5" t="n">
         <v>0.45428466796875</v>
       </c>
     </row>
@@ -4857,7 +4847,7 @@
       <c r="F74" s="4" t="n">
         <v>0.0591229976875461</v>
       </c>
-      <c r="G74" s="6" t="n">
+      <c r="G74" s="5" t="n">
         <v>0.52447509765625</v>
       </c>
       <c r="H74" s="4" t="n">
@@ -4866,7 +4856,7 @@
       <c r="I74" s="4" t="n">
         <v>0.0767631921629904</v>
       </c>
-      <c r="J74" s="7" t="n">
+      <c r="J74" s="5" t="n">
         <v>0.072998046875</v>
       </c>
       <c r="K74" s="4" t="n">
@@ -4875,7 +4865,7 @@
       <c r="L74" s="4" t="n">
         <v>0.0888437446842704</v>
       </c>
-      <c r="M74" s="8" t="n">
+      <c r="M74" s="5" t="n">
         <v>0.52447509765625</v>
       </c>
       <c r="N74" s="4" t="n">
@@ -4884,7 +4874,7 @@
       <c r="O74" s="4" t="n">
         <v>0.0687131584067946</v>
       </c>
-      <c r="P74" s="9" t="n">
+      <c r="P74" s="5" t="n">
         <v>0.00042724609375</v>
       </c>
       <c r="Q74" s="4" t="n">
@@ -4893,7 +4883,7 @@
       <c r="R74" s="4" t="n">
         <v>0.0609374554337454</v>
       </c>
-      <c r="S74" s="10" t="n">
+      <c r="S74" s="5" t="n">
         <v>0.00152587890625</v>
       </c>
     </row>
@@ -4916,7 +4906,7 @@
       <c r="F75" s="4" t="n">
         <v>0.0469199828041929</v>
       </c>
-      <c r="G75" s="6" t="n">
+      <c r="G75" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="H75" s="4" t="n">
@@ -4925,7 +4915,7 @@
       <c r="I75" s="4" t="n">
         <v>0.075465328667711</v>
       </c>
-      <c r="J75" s="7" t="n">
+      <c r="J75" s="5" t="n">
         <v>0.0001220703125</v>
       </c>
       <c r="K75" s="4" t="n">
@@ -4934,7 +4924,7 @@
       <c r="L75" s="4" t="n">
         <v>0.0554232664501036</v>
       </c>
-      <c r="M75" s="8" t="n">
+      <c r="M75" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
       <c r="N75" s="4" t="n">
@@ -4943,7 +4933,7 @@
       <c r="O75" s="4" t="n">
         <v>0.0667693374659952</v>
       </c>
-      <c r="P75" s="9" t="n">
+      <c r="P75" s="5" t="n">
         <v>0.02154541015625</v>
       </c>
       <c r="Q75" s="4" t="n">
@@ -4952,7 +4942,7 @@
       <c r="R75" s="4" t="n">
         <v>0.0789972854227685</v>
       </c>
-      <c r="S75" s="10" t="n">
+      <c r="S75" s="5" t="n">
         <v>0.00006103515625</v>
       </c>
     </row>
@@ -4975,7 +4965,7 @@
       <c r="F76" s="4" t="n">
         <v>0.086391347900146</v>
       </c>
-      <c r="G76" s="6" t="n">
+      <c r="G76" s="5" t="n">
         <v>0.97796630859375</v>
       </c>
       <c r="H76" s="4" t="n">
@@ -4984,7 +4974,7 @@
       <c r="I76" s="4" t="n">
         <v>0.158802499858403</v>
       </c>
-      <c r="J76" s="7" t="n">
+      <c r="J76" s="5" t="n">
         <v>0.25238037109375</v>
       </c>
       <c r="K76" s="4" t="n">
@@ -4993,7 +4983,7 @@
       <c r="L76" s="4" t="n">
         <v>0.128577356203952</v>
       </c>
-      <c r="M76" s="8" t="n">
+      <c r="M76" s="5" t="n">
         <v>0.25238037109375</v>
       </c>
       <c r="N76" s="4" t="n">
@@ -5002,7 +4992,7 @@
       <c r="O76" s="4" t="n">
         <v>0.102714204474108</v>
       </c>
-      <c r="P76" s="9" t="n">
+      <c r="P76" s="5" t="n">
         <v>0.359130859375</v>
       </c>
       <c r="Q76" s="4" t="n">
@@ -5011,7 +5001,7 @@
       <c r="R76" s="4" t="n">
         <v>0.150832325485922</v>
       </c>
-      <c r="S76" s="10" t="n">
+      <c r="S76" s="5" t="n">
         <v>0.1876220703125</v>
       </c>
     </row>
@@ -5034,7 +5024,7 @@
       <c r="F77" s="4" t="n">
         <v>0.210579211714223</v>
       </c>
-      <c r="G77" s="6" t="n">
+      <c r="G77" s="5" t="n">
         <v>0.00537109375</v>
       </c>
       <c r="H77" s="4" t="n">
@@ -5043,7 +5033,7 @@
       <c r="I77" s="4" t="n">
         <v>0.314953443360591</v>
       </c>
-      <c r="J77" s="7" t="n">
+      <c r="J77" s="5" t="n">
         <v>0.5994873046875</v>
       </c>
       <c r="K77" s="4" t="n">
@@ -5052,7 +5042,7 @@
       <c r="L77" s="4" t="n">
         <v>0.214549281486226</v>
       </c>
-      <c r="M77" s="8" t="n">
+      <c r="M77" s="5" t="n">
         <v>0.012451171875</v>
       </c>
       <c r="N77" s="4" t="n">
@@ -5061,7 +5051,7 @@
       <c r="O77" s="4" t="n">
         <v>0.281718265177221</v>
       </c>
-      <c r="P77" s="9" t="n">
+      <c r="P77" s="5" t="n">
         <v>0.846923828125</v>
       </c>
       <c r="Q77" s="4" t="n">
@@ -5070,7 +5060,7 @@
       <c r="R77" s="4" t="n">
         <v>0.350844037657619</v>
       </c>
-      <c r="S77" s="10" t="n">
+      <c r="S77" s="5" t="n">
         <v>0.48870849609375</v>
       </c>
     </row>
@@ -5093,7 +5083,7 @@
       <c r="F78" s="4" t="n">
         <v>0.0942771393000919</v>
       </c>
-      <c r="G78" s="6" t="n">
+      <c r="G78" s="5" t="n">
         <v>0.02557373046875</v>
       </c>
       <c r="H78" s="4" t="n">
@@ -5102,7 +5092,7 @@
       <c r="I78" s="4" t="n">
         <v>0.178853999833377</v>
       </c>
-      <c r="J78" s="7" t="n">
+      <c r="J78" s="5" t="n">
         <v>0.02557373046875</v>
       </c>
       <c r="K78" s="4" t="n">
@@ -5111,7 +5101,7 @@
       <c r="L78" s="4" t="n">
         <v>0.166535472180023</v>
       </c>
-      <c r="M78" s="8" t="n">
+      <c r="M78" s="5" t="n">
         <v>0.01025390625</v>
       </c>
       <c r="N78" s="4" t="n">
@@ -5120,7 +5110,7 @@
       <c r="O78" s="4" t="n">
         <v>0.0894275345630169</v>
       </c>
-      <c r="P78" s="9" t="n">
+      <c r="P78" s="5" t="n">
         <v>0.00836181640625</v>
       </c>
       <c r="Q78" s="4" t="n">
@@ -5129,7 +5119,7 @@
       <c r="R78" s="4" t="n">
         <v>0.155412607551436</v>
       </c>
-      <c r="S78" s="10" t="n">
+      <c r="S78" s="5" t="n">
         <v>0.072998046875</v>
       </c>
     </row>
@@ -5152,7 +5142,7 @@
       <c r="F79" s="4" t="n">
         <v>0.0645532646140761</v>
       </c>
-      <c r="G79" s="6" t="n">
+      <c r="G79" s="5" t="n">
         <v>0.0067138671875</v>
       </c>
       <c r="H79" s="4" t="n">
@@ -5161,7 +5151,7 @@
       <c r="I79" s="4" t="n">
         <v>0.116836158535164</v>
       </c>
-      <c r="J79" s="7" t="n">
+      <c r="J79" s="5" t="n">
         <v>0.0301513671875</v>
       </c>
       <c r="K79" s="4" t="n">
@@ -5170,7 +5160,7 @@
       <c r="L79" s="4" t="n">
         <v>0.104753357459592</v>
       </c>
-      <c r="M79" s="8" t="n">
+      <c r="M79" s="5" t="n">
         <v>0.52447509765625</v>
       </c>
       <c r="N79" s="4" t="n">
@@ -5179,7 +5169,7 @@
       <c r="O79" s="4" t="n">
         <v>0.0815680235339853</v>
       </c>
-      <c r="P79" s="9" t="n">
+      <c r="P79" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="Q79" s="4" t="n">
@@ -5188,7 +5178,7 @@
       <c r="R79" s="4" t="n">
         <v>0.162550400993601</v>
       </c>
-      <c r="S79" s="10" t="n">
+      <c r="S79" s="5" t="n">
         <v>0.063720703125</v>
       </c>
     </row>
@@ -5211,7 +5201,7 @@
       <c r="F80" s="4" t="n">
         <v>0.0537266015556551</v>
       </c>
-      <c r="G80" s="6" t="n">
+      <c r="G80" s="5" t="n">
         <v>0.00262451171875</v>
       </c>
       <c r="H80" s="4" t="n">
@@ -5220,7 +5210,7 @@
       <c r="I80" s="4" t="n">
         <v>0.0824214923406306</v>
       </c>
-      <c r="J80" s="7" t="n">
+      <c r="J80" s="5" t="n">
         <v>0.00335693359375</v>
       </c>
       <c r="K80" s="4" t="n">
@@ -5229,7 +5219,7 @@
       <c r="L80" s="4" t="n">
         <v>0.0721215721984113</v>
       </c>
-      <c r="M80" s="8" t="n">
+      <c r="M80" s="5" t="n">
         <v>0.0042724609375</v>
       </c>
       <c r="N80" s="4" t="n">
@@ -5238,7 +5228,7 @@
       <c r="O80" s="4" t="n">
         <v>0.0737483358963888</v>
       </c>
-      <c r="P80" s="9" t="n">
+      <c r="P80" s="5" t="n">
         <v>0.04791259765625</v>
       </c>
       <c r="Q80" s="4" t="n">
@@ -5247,7 +5237,7 @@
       <c r="R80" s="4" t="n">
         <v>0.0706553168064789</v>
       </c>
-      <c r="S80" s="10" t="n">
+      <c r="S80" s="5" t="n">
         <v>0.0008544921875</v>
       </c>
     </row>
@@ -5270,7 +5260,7 @@
       <c r="F81" s="4" t="n">
         <v>0.095889909627149</v>
       </c>
-      <c r="G81" s="6" t="n">
+      <c r="G81" s="5" t="n">
         <v>0.10699462890625</v>
       </c>
       <c r="H81" s="4" t="n">
@@ -5279,7 +5269,7 @@
       <c r="I81" s="4" t="n">
         <v>0.163448973517494</v>
       </c>
-      <c r="J81" s="7" t="n">
+      <c r="J81" s="5" t="n">
         <v>0.01025390625</v>
       </c>
       <c r="K81" s="4" t="n">
@@ -5288,7 +5278,7 @@
       <c r="L81" s="4" t="n">
         <v>0.182112706128496</v>
       </c>
-      <c r="M81" s="8" t="n">
+      <c r="M81" s="5" t="n">
         <v>0.42120361328125</v>
       </c>
       <c r="N81" s="4" t="n">
@@ -5297,7 +5287,7 @@
       <c r="O81" s="4" t="n">
         <v>0.0689392735702024</v>
       </c>
-      <c r="P81" s="9" t="n">
+      <c r="P81" s="5" t="n">
         <v>0.00018310546875</v>
       </c>
       <c r="Q81" s="4" t="n">
@@ -5306,7 +5296,7 @@
       <c r="R81" s="4" t="n">
         <v>0.130254090352057</v>
       </c>
-      <c r="S81" s="10" t="n">
+      <c r="S81" s="5" t="n">
         <v>0.0067138671875</v>
       </c>
     </row>
@@ -5329,7 +5319,7 @@
       <c r="F82" s="4" t="n">
         <v>0.0866672362830081</v>
       </c>
-      <c r="G82" s="6" t="n">
+      <c r="G82" s="5" t="n">
         <v>0.0006103515625</v>
       </c>
       <c r="H82" s="4" t="n">
@@ -5338,7 +5328,7 @@
       <c r="I82" s="4" t="n">
         <v>0.161443367442641</v>
       </c>
-      <c r="J82" s="7" t="n">
+      <c r="J82" s="5" t="n">
         <v>0.04791259765625</v>
       </c>
       <c r="K82" s="4" t="n">
@@ -5347,7 +5337,7 @@
       <c r="L82" s="4" t="n">
         <v>0.114234858266171</v>
       </c>
-      <c r="M82" s="8" t="n">
+      <c r="M82" s="5" t="n">
         <v>0.00262451171875</v>
       </c>
       <c r="N82" s="4" t="n">
@@ -5356,7 +5346,7 @@
       <c r="O82" s="4" t="n">
         <v>0.115113750420284</v>
       </c>
-      <c r="P82" s="9" t="n">
+      <c r="P82" s="5" t="n">
         <v>0.03533935546875</v>
       </c>
       <c r="Q82" s="4" t="n">
@@ -5365,7 +5355,7 @@
       <c r="R82" s="4" t="n">
         <v>0.134414093007346</v>
       </c>
-      <c r="S82" s="10" t="n">
+      <c r="S82" s="5" t="n">
         <v>0.063720703125</v>
       </c>
     </row>
@@ -5388,7 +5378,7 @@
       <c r="F83" s="4" t="n">
         <v>0.694419494962948</v>
       </c>
-      <c r="G83" s="6" t="n">
+      <c r="G83" s="5" t="n">
         <v>0.25</v>
       </c>
       <c r="H83" s="4" t="n">
@@ -5397,7 +5387,7 @@
       <c r="I83" s="4" t="n">
         <v>1.04619367479268</v>
       </c>
-      <c r="J83" s="7" t="n">
+      <c r="J83" s="5" t="n">
         <v>0.30078125</v>
       </c>
       <c r="K83" s="4" t="n">
@@ -5406,7 +5396,7 @@
       <c r="L83" s="4" t="n">
         <v>0.722805258575338</v>
       </c>
-      <c r="M83" s="8" t="n">
+      <c r="M83" s="5" t="n">
         <v>0.49609375</v>
       </c>
       <c r="N83" s="4" t="n">
@@ -5415,7 +5405,7 @@
       <c r="O83" s="4" t="n">
         <v>1.0206185038375</v>
       </c>
-      <c r="P83" s="9" t="n">
+      <c r="P83" s="5" t="n">
         <v>0.49609375</v>
       </c>
       <c r="Q83" s="4" t="n">
@@ -5424,7 +5414,7 @@
       <c r="R83" s="4" t="n">
         <v>1.10636611568398</v>
       </c>
-      <c r="S83" s="10" t="n">
+      <c r="S83" s="5" t="n">
         <v>0.30078125</v>
       </c>
     </row>

--- a/data/supp_tables/Supplementary Table 4.xlsx
+++ b/data/supp_tables/Supplementary Table 4.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Supplementary Table 4 | Summary of the effects of core promoter elements and TF binding sites on promoter strength.</t>
   </si>
   <si>
-    <t xml:space="preserve">For each species, the promoters were grouped by GC content to yield 5 groups of approximately similar size each. The difference in promoter strength between promotors with and without the indicated core promoter element or TF binding site was calculated for each library and assay system and the mean difference (mean) and its standard deviation (sd) across all 15 groups (3 species x 5 GC content groups) are listed here. The Wilcoxon rank-sum test was used to compare the differences to a null distribution and the corresponding p-value is indicated. Significant (p-value &lt; 0.0005) effects are highlighted in green. TF_x, binding site for TFs from cluster x.</t>
+    <t xml:space="preserve">For each species, the promoters were grouped by GC content to yield 5 groups of approximately similar size each. The difference in promoter strength between promotors with and without the indicated core promoter element or TF binding site was calculated for each library and assay system and the mean difference (mean) and its standard deviation (sd) across all 15 groups (3 species x 5 GC content groups) are listed here. The two-sided Wilcoxon rank-sum test was used to compare the differences to a null distribution and the corresponding p-value is indicated. Significant (p-value &lt; 0.0005) effects are highlighted in green. TF_x, binding site for TFs from cluster x.</t>
   </si>
   <si>
     <t xml:space="preserve">element/TF binding site</t>
